--- a/premise/data/additional_inventories/lci-carbon-fiber.xlsx
+++ b/premise/data/additional_inventories/lci-carbon-fiber.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Carbon fiber" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual" iterate="1" iterateCount="15" iterateDelta="0.01"/>
+  <calcPr calcId="162913" calcMode="manual" iterate="1" iterateCount="15" iterateDelta="0.05"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -715,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L353"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2291,7 +2291,8 @@
         <v>66</v>
       </c>
       <c r="B113">
-        <v>0.62341886519696432</v>
+        <f>0.623418865196964/1000</f>
+        <v>6.2341886519696403E-4</v>
       </c>
       <c r="C113" t="s">
         <v>67</v>
@@ -2300,7 +2301,7 @@
         <v>68</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G113" t="s">
         <v>69</v>
@@ -3423,7 +3424,8 @@
         <v>66</v>
       </c>
       <c r="B193">
-        <v>0.20743958729296769</v>
+        <f>0.207439587292968/1000</f>
+        <v>2.0743958729296799E-4</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>67</v>
@@ -3432,7 +3434,7 @@
         <v>68</v>
       </c>
       <c r="F193" s="7" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G193" s="7" t="s">
         <v>69</v>
@@ -3661,7 +3663,8 @@
         <v>66</v>
       </c>
       <c r="B210">
-        <v>0.47402597402597407</v>
+        <f>0.474025974025974/1000</f>
+        <v>4.7402597402597401E-4</v>
       </c>
       <c r="C210" s="7" t="s">
         <v>67</v>
@@ -3670,7 +3673,7 @@
         <v>68</v>
       </c>
       <c r="F210" s="7" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G210" s="7" t="s">
         <v>69</v>

--- a/premise/data/additional_inventories/lci-carbon-fiber.xlsx
+++ b/premise/data/additional_inventories/lci-carbon-fiber.xlsx
@@ -1,23 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB1716B-3EB6-D043-9D0B-14CB8817D81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="25520" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Carbon fiber" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual" iterate="1" iterateCount="15" iterateDelta="0.05"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Carbon fiber'!$A$1:$L$353</definedName>
+  </definedNames>
+  <calcPr calcId="191029" calcMode="manual" iterate="1" iterateCount="10" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -362,7 +376,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -712,19 +726,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>16</v>
       </c>
@@ -732,7 +747,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -740,7 +756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -748,7 +764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -756,7 +772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -764,7 +780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -772,7 +788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -780,7 +796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -788,12 +804,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -816,7 +832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -839,7 +855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -862,7 +878,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -885,7 +901,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -908,7 +924,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -932,7 +948,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -956,7 +972,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -980,7 +996,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -988,7 +1005,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -996,7 +1013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1004,7 +1021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1012,7 +1029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1020,7 +1037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1028,7 +1045,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -1036,12 +1053,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1064,7 +1081,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>37</v>
       </c>
@@ -1087,7 +1104,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -1111,7 +1128,7 @@
       </c>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -1135,7 +1152,7 @@
       </c>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -1159,7 +1176,7 @@
       </c>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -1184,7 +1201,7 @@
       </c>
       <c r="K33" s="5"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -1208,7 +1225,7 @@
       </c>
       <c r="K34" s="5"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -1232,7 +1249,8 @@
       </c>
       <c r="K35" s="5"/>
     </row>
-    <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -1240,7 +1258,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -1248,7 +1266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1256,7 +1274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -1264,7 +1282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -1272,7 +1290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -1280,7 +1298,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -1288,12 +1306,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -1316,7 +1334,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>50</v>
       </c>
@@ -1339,7 +1357,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>39</v>
       </c>
@@ -1363,7 +1381,7 @@
       </c>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>37</v>
       </c>
@@ -1387,7 +1405,7 @@
       </c>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>27</v>
       </c>
@@ -1411,7 +1429,7 @@
       </c>
       <c r="J49" s="5"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>44</v>
       </c>
@@ -1436,7 +1454,7 @@
       </c>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>30</v>
       </c>
@@ -1460,7 +1478,7 @@
       </c>
       <c r="J51" s="5"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>46</v>
       </c>
@@ -1484,7 +1502,7 @@
       </c>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>1</v>
       </c>
@@ -1508,7 +1526,7 @@
       </c>
       <c r="J53" s="5"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>48</v>
       </c>
@@ -1532,7 +1550,8 @@
       </c>
       <c r="J54" s="5"/>
     </row>
-    <row r="56" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
@@ -1540,7 +1559,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -1548,7 +1567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -1556,7 +1575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -1564,7 +1583,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -1572,7 +1591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -1580,7 +1599,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -1588,12 +1607,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -1616,7 +1635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>51</v>
       </c>
@@ -1639,7 +1658,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>27</v>
       </c>
@@ -1662,7 +1681,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>44</v>
       </c>
@@ -1686,7 +1705,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>50</v>
       </c>
@@ -1709,7 +1728,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
@@ -1717,7 +1737,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>2</v>
       </c>
@@ -1725,7 +1745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -1733,7 +1753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -1741,7 +1761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -1749,7 +1769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -1757,7 +1777,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -1765,12 +1785,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>14</v>
       </c>
@@ -1793,7 +1813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>53</v>
       </c>
@@ -1816,7 +1836,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>51</v>
       </c>
@@ -1839,7 +1859,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
         <v>39</v>
       </c>
@@ -1862,7 +1882,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
         <v>27</v>
       </c>
@@ -1885,7 +1905,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
         <v>48</v>
       </c>
@@ -1908,7 +1928,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
         <v>34</v>
       </c>
@@ -1931,7 +1951,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="86" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>0</v>
       </c>
@@ -1939,7 +1960,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>2</v>
       </c>
@@ -1947,7 +1968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -1955,7 +1976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -1963,7 +1984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -1971,7 +1992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -1979,7 +2000,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -1987,12 +2008,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>14</v>
       </c>
@@ -2015,7 +2036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>55</v>
       </c>
@@ -2038,7 +2059,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>57</v>
       </c>
@@ -2061,7 +2082,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
         <v>39</v>
       </c>
@@ -2084,7 +2105,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
         <v>27</v>
       </c>
@@ -2107,7 +2128,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>53</v>
       </c>
@@ -2130,7 +2151,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
         <v>61</v>
       </c>
@@ -2153,7 +2174,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
         <v>34</v>
       </c>
@@ -2176,7 +2197,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="103" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>0</v>
       </c>
@@ -2184,7 +2206,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>2</v>
       </c>
@@ -2192,7 +2214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>4</v>
       </c>
@@ -2200,7 +2222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>6</v>
       </c>
@@ -2208,7 +2230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -2216,7 +2238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>9</v>
       </c>
@@ -2224,7 +2246,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>11</v>
       </c>
@@ -2232,12 +2254,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>14</v>
       </c>
@@ -2263,7 +2285,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
         <v>63</v>
       </c>
@@ -2286,7 +2308,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
         <v>66</v>
       </c>
@@ -2307,7 +2329,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
         <v>39</v>
       </c>
@@ -2330,7 +2352,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
         <v>27</v>
       </c>
@@ -2353,7 +2375,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>55</v>
       </c>
@@ -2376,7 +2398,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
         <v>48</v>
       </c>
@@ -2399,7 +2421,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="119" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>0</v>
       </c>
@@ -2407,7 +2430,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>2</v>
       </c>
@@ -2415,7 +2438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>4</v>
       </c>
@@ -2423,7 +2446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>6</v>
       </c>
@@ -2431,7 +2454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>8</v>
       </c>
@@ -2439,7 +2462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>9</v>
       </c>
@@ -2447,7 +2470,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>11</v>
       </c>
@@ -2455,12 +2478,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>14</v>
       </c>
@@ -2486,7 +2509,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
         <v>70</v>
       </c>
@@ -2509,7 +2532,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
         <v>39</v>
       </c>
@@ -2533,7 +2556,7 @@
       </c>
       <c r="K129" s="5"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
         <v>27</v>
       </c>
@@ -2557,7 +2580,7 @@
       </c>
       <c r="K130" s="5"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
         <v>44</v>
       </c>
@@ -2581,7 +2604,7 @@
       </c>
       <c r="K131" s="5"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>63</v>
       </c>
@@ -2605,7 +2628,7 @@
       </c>
       <c r="K132" s="5"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
         <v>48</v>
       </c>
@@ -2629,7 +2652,8 @@
       </c>
       <c r="K133" s="5"/>
     </row>
-    <row r="135" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="135" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>0</v>
       </c>
@@ -2637,7 +2661,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>2</v>
       </c>
@@ -2645,7 +2669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>4</v>
       </c>
@@ -2653,7 +2677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>6</v>
       </c>
@@ -2661,7 +2685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -2669,7 +2693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>9</v>
       </c>
@@ -2677,7 +2701,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -2685,12 +2709,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>14</v>
       </c>
@@ -2716,7 +2740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
         <v>72</v>
       </c>
@@ -2739,7 +2763,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
         <v>27</v>
       </c>
@@ -2762,7 +2786,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
         <v>44</v>
       </c>
@@ -2785,7 +2809,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="7" t="s">
         <v>70</v>
       </c>
@@ -2808,7 +2832,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
         <v>74</v>
       </c>
@@ -2831,7 +2855,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="150" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>0</v>
       </c>
@@ -2839,7 +2864,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>2</v>
       </c>
@@ -2847,7 +2872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>4</v>
       </c>
@@ -2855,7 +2880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>6</v>
       </c>
@@ -2863,7 +2888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>8</v>
       </c>
@@ -2871,7 +2896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>9</v>
       </c>
@@ -2879,7 +2904,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>11</v>
       </c>
@@ -2887,12 +2912,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>14</v>
       </c>
@@ -2918,7 +2943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="7" t="s">
         <v>76</v>
       </c>
@@ -2941,7 +2966,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="7" t="s">
         <v>39</v>
       </c>
@@ -2965,7 +2990,7 @@
       </c>
       <c r="K160" s="5"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="7" t="s">
         <v>27</v>
       </c>
@@ -2989,7 +3014,7 @@
       </c>
       <c r="K161" s="5"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="7" t="s">
         <v>72</v>
       </c>
@@ -3013,7 +3038,8 @@
       </c>
       <c r="K162" s="5"/>
     </row>
-    <row r="164" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="164" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>0</v>
       </c>
@@ -3021,7 +3047,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>2</v>
       </c>
@@ -3029,7 +3055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>4</v>
       </c>
@@ -3037,7 +3063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>6</v>
       </c>
@@ -3045,7 +3071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>8</v>
       </c>
@@ -3053,7 +3079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>9</v>
       </c>
@@ -3061,7 +3087,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>11</v>
       </c>
@@ -3069,12 +3095,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>14</v>
       </c>
@@ -3100,7 +3126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="7" t="s">
         <v>77</v>
       </c>
@@ -3124,7 +3150,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="7" t="s">
         <v>39</v>
       </c>
@@ -3149,7 +3175,7 @@
       </c>
       <c r="J174" s="5"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="7" t="s">
         <v>27</v>
       </c>
@@ -3174,7 +3200,7 @@
       </c>
       <c r="J175" s="5"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="7" t="s">
         <v>76</v>
       </c>
@@ -3199,7 +3225,7 @@
       </c>
       <c r="J176" s="5"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="7" t="s">
         <v>34</v>
       </c>
@@ -3224,7 +3250,8 @@
       </c>
       <c r="J177" s="5"/>
     </row>
-    <row r="179" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="179" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>0</v>
       </c>
@@ -3232,7 +3259,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>2</v>
       </c>
@@ -3240,7 +3267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>4</v>
       </c>
@@ -3248,7 +3275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>6</v>
       </c>
@@ -3256,7 +3283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>8</v>
       </c>
@@ -3264,7 +3291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>9</v>
       </c>
@@ -3272,7 +3299,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>11</v>
       </c>
@@ -3280,12 +3307,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>14</v>
       </c>
@@ -3311,7 +3338,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="7" t="s">
         <v>78</v>
       </c>
@@ -3335,7 +3362,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="7" t="s">
         <v>27</v>
       </c>
@@ -3359,7 +3386,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="7" t="s">
         <v>79</v>
       </c>
@@ -3379,7 +3406,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="7" t="s">
         <v>80</v>
       </c>
@@ -3399,7 +3426,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="7" t="s">
         <v>81</v>
       </c>
@@ -3419,7 +3446,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="7" t="s">
         <v>66</v>
       </c>
@@ -3440,7 +3467,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="195" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>0</v>
       </c>
@@ -3448,7 +3476,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>2</v>
       </c>
@@ -3456,7 +3484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>4</v>
       </c>
@@ -3464,7 +3492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>6</v>
       </c>
@@ -3472,7 +3500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>8</v>
       </c>
@@ -3480,7 +3508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>9</v>
       </c>
@@ -3488,7 +3516,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>11</v>
       </c>
@@ -3496,12 +3524,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>14</v>
       </c>
@@ -3527,7 +3555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="7" t="s">
         <v>82</v>
       </c>
@@ -3551,7 +3579,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="7" t="s">
         <v>27</v>
       </c>
@@ -3575,7 +3603,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>83</v>
       </c>
@@ -3598,7 +3626,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="7" t="s">
         <v>80</v>
       </c>
@@ -3618,7 +3646,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="7" t="s">
         <v>81</v>
       </c>
@@ -3638,7 +3666,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="7" t="s">
         <v>85</v>
       </c>
@@ -3658,7 +3686,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="7" t="s">
         <v>66</v>
       </c>
@@ -3679,7 +3707,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="7" t="s">
         <v>86</v>
       </c>
@@ -3702,7 +3730,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="7" t="s">
         <v>39</v>
       </c>
@@ -3726,7 +3754,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="214" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="214" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>0</v>
       </c>
@@ -3734,7 +3763,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>2</v>
       </c>
@@ -3742,7 +3771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>4</v>
       </c>
@@ -3750,7 +3779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>6</v>
       </c>
@@ -3758,7 +3787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>8</v>
       </c>
@@ -3766,7 +3795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>9</v>
       </c>
@@ -3774,7 +3803,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>11</v>
       </c>
@@ -3782,12 +3811,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="221" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>14</v>
       </c>
@@ -3813,7 +3842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="7" t="s">
         <v>88</v>
       </c>
@@ -3837,7 +3866,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="7" t="s">
         <v>39</v>
       </c>
@@ -3862,7 +3891,7 @@
       </c>
       <c r="L224" s="5"/>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="7" t="s">
         <v>27</v>
       </c>
@@ -3887,7 +3916,7 @@
       </c>
       <c r="L225" s="5"/>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>83</v>
       </c>
@@ -3911,7 +3940,7 @@
       </c>
       <c r="L226" s="5"/>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="7" t="s">
         <v>77</v>
       </c>
@@ -3936,7 +3965,7 @@
       </c>
       <c r="L227" s="5"/>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" s="7" t="s">
         <v>78</v>
       </c>
@@ -3961,7 +3990,8 @@
       </c>
       <c r="L228" s="5"/>
     </row>
-    <row r="230" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="230" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>0</v>
       </c>
@@ -3969,7 +3999,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>2</v>
       </c>
@@ -3977,7 +4007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>4</v>
       </c>
@@ -3985,7 +4015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>6</v>
       </c>
@@ -3993,7 +4023,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>8</v>
       </c>
@@ -4001,7 +4031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>9</v>
       </c>
@@ -4009,7 +4039,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>11</v>
       </c>
@@ -4017,12 +4047,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="237" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>14</v>
       </c>
@@ -4048,7 +4078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="7" t="s">
         <v>90</v>
       </c>
@@ -4072,7 +4102,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="7" t="s">
         <v>27</v>
       </c>
@@ -4096,7 +4126,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="7" t="s">
         <v>44</v>
       </c>
@@ -4119,7 +4149,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="7" t="s">
         <v>88</v>
       </c>
@@ -4143,7 +4173,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>46</v>
       </c>
@@ -4166,7 +4196,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>48</v>
       </c>
@@ -4189,7 +4219,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" s="7" t="s">
         <v>82</v>
       </c>
@@ -4213,7 +4243,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="247" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>0</v>
       </c>
@@ -4221,7 +4252,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>2</v>
       </c>
@@ -4229,7 +4260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>4</v>
       </c>
@@ -4237,7 +4268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>6</v>
       </c>
@@ -4245,7 +4276,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>8</v>
       </c>
@@ -4253,7 +4284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>9</v>
       </c>
@@ -4261,7 +4292,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>11</v>
       </c>
@@ -4269,12 +4300,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>14</v>
       </c>
@@ -4300,7 +4331,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="7" t="s">
         <v>92</v>
       </c>
@@ -4324,7 +4355,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="7" t="s">
         <v>27</v>
       </c>
@@ -4348,7 +4379,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="7" t="s">
         <v>44</v>
       </c>
@@ -4371,7 +4402,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="7" t="s">
         <v>90</v>
       </c>
@@ -4395,7 +4426,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>46</v>
       </c>
@@ -4418,7 +4449,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" s="7" t="s">
         <v>82</v>
       </c>
@@ -4442,7 +4473,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="263" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="263" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>0</v>
       </c>
@@ -4450,7 +4482,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>2</v>
       </c>
@@ -4458,7 +4490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>4</v>
       </c>
@@ -4466,7 +4498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>6</v>
       </c>
@@ -4474,7 +4506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>8</v>
       </c>
@@ -4482,7 +4514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>9</v>
       </c>
@@ -4490,7 +4522,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>11</v>
       </c>
@@ -4498,12 +4530,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="270" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>14</v>
       </c>
@@ -4529,7 +4561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="7" t="s">
         <v>94</v>
       </c>
@@ -4553,7 +4585,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="7" t="s">
         <v>95</v>
       </c>
@@ -4577,7 +4609,7 @@
       </c>
       <c r="K273" s="5"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="7" t="s">
         <v>39</v>
       </c>
@@ -4602,7 +4634,7 @@
       </c>
       <c r="K274" s="5"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="7" t="s">
         <v>27</v>
       </c>
@@ -4627,7 +4659,7 @@
       </c>
       <c r="K275" s="5"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="7" t="s">
         <v>44</v>
       </c>
@@ -4651,7 +4683,7 @@
       </c>
       <c r="K276" s="5"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="7" t="s">
         <v>92</v>
       </c>
@@ -4676,7 +4708,7 @@
       </c>
       <c r="K277" s="5"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="7" t="s">
         <v>34</v>
       </c>
@@ -4701,7 +4733,7 @@
       </c>
       <c r="K278" s="5"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="7" t="s">
         <v>97</v>
       </c>
@@ -4725,7 +4757,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="281" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="281" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>0</v>
       </c>
@@ -4733,7 +4766,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>2</v>
       </c>
@@ -4741,7 +4774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>4</v>
       </c>
@@ -4749,7 +4782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>6</v>
       </c>
@@ -4757,7 +4790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>8</v>
       </c>
@@ -4765,7 +4798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>9</v>
       </c>
@@ -4773,7 +4806,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>11</v>
       </c>
@@ -4781,12 +4814,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>14</v>
       </c>
@@ -4812,7 +4845,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="7" t="s">
         <v>99</v>
       </c>
@@ -4836,7 +4869,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="7" t="s">
         <v>94</v>
       </c>
@@ -4860,7 +4893,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="7" t="s">
         <v>39</v>
       </c>
@@ -4884,7 +4917,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="7" t="s">
         <v>27</v>
       </c>
@@ -4908,7 +4941,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="7" t="s">
         <v>97</v>
       </c>
@@ -4931,7 +4964,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="296" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>0</v>
       </c>
@@ -4939,7 +4973,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>2</v>
       </c>
@@ -4947,7 +4981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>4</v>
       </c>
@@ -4955,7 +4989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>6</v>
       </c>
@@ -4963,7 +4997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>8</v>
       </c>
@@ -4971,7 +5005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>9</v>
       </c>
@@ -4979,7 +5013,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>11</v>
       </c>
@@ -4987,12 +5021,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>14</v>
       </c>
@@ -5018,7 +5052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="7" t="s">
         <v>101</v>
       </c>
@@ -5042,7 +5076,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="7" t="s">
         <v>99</v>
       </c>
@@ -5066,7 +5100,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="7" t="s">
         <v>27</v>
       </c>
@@ -5090,7 +5124,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>48</v>
       </c>
@@ -5113,7 +5147,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="310" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="310" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>0</v>
       </c>
@@ -5121,7 +5156,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>2</v>
       </c>
@@ -5129,7 +5164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>4</v>
       </c>
@@ -5137,7 +5172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>6</v>
       </c>
@@ -5145,7 +5180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>8</v>
       </c>
@@ -5153,7 +5188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>9</v>
       </c>
@@ -5161,7 +5196,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>11</v>
       </c>
@@ -5169,12 +5204,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="317" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>14</v>
       </c>
@@ -5200,7 +5235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="7" t="s">
         <v>103</v>
       </c>
@@ -5224,7 +5259,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="7" t="s">
         <v>101</v>
       </c>
@@ -5248,7 +5283,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="7" t="s">
         <v>39</v>
       </c>
@@ -5272,7 +5307,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="7" t="s">
         <v>27</v>
       </c>
@@ -5296,7 +5331,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="7" t="s">
         <v>104</v>
       </c>
@@ -5319,7 +5354,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="7" t="s">
         <v>34</v>
       </c>
@@ -5343,7 +5378,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="326" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="326" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>0</v>
       </c>
@@ -5351,7 +5387,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>2</v>
       </c>
@@ -5359,7 +5395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>4</v>
       </c>
@@ -5367,7 +5403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>6</v>
       </c>
@@ -5375,7 +5411,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>8</v>
       </c>
@@ -5383,7 +5419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>9</v>
       </c>
@@ -5391,7 +5427,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>11</v>
       </c>
@@ -5399,12 +5435,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="333" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>14</v>
       </c>
@@ -5430,7 +5466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="7" t="s">
         <v>106</v>
       </c>
@@ -5454,7 +5490,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="7" t="s">
         <v>103</v>
       </c>
@@ -5478,7 +5514,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="7" t="s">
         <v>39</v>
       </c>
@@ -5502,7 +5538,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="7" t="s">
         <v>27</v>
       </c>
@@ -5526,7 +5562,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>48</v>
       </c>
@@ -5549,7 +5585,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="341" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="341" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>0</v>
       </c>
@@ -5557,7 +5594,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>2</v>
       </c>
@@ -5565,7 +5602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>4</v>
       </c>
@@ -5573,7 +5610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>6</v>
       </c>
@@ -5581,7 +5618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>8</v>
       </c>
@@ -5589,7 +5626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>9</v>
       </c>
@@ -5597,7 +5634,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>11</v>
       </c>
@@ -5605,12 +5642,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>14</v>
       </c>
@@ -5636,7 +5673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" s="7" t="s">
         <v>108</v>
       </c>
@@ -5660,7 +5697,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="7" t="s">
         <v>106</v>
       </c>
@@ -5684,7 +5721,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" s="7" t="s">
         <v>39</v>
       </c>
@@ -5708,7 +5745,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" s="7" t="s">
         <v>27</v>
       </c>
@@ -5733,6 +5770,15 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L353" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Exhaust gas treatment 1"/>
+        <filter val="Exhaust gas treatment 2"/>
+        <filter val="treatment of wastewater, average, capacity 1E9l/year"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/premise/data/additional_inventories/lci-carbon-fiber.xlsx
+++ b/premise/data/additional_inventories/lci-carbon-fiber.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB1716B-3EB6-D043-9D0B-14CB8817D81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D417716-946B-6748-AF48-28D56857EB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="25520" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34600" yWindow="2780" windowWidth="25520" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Carbon fiber" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Carbon fiber'!$A$1:$L$353</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="manual" iterate="1" iterateCount="10" calcOnSave="0"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -178,9 +178,6 @@
     <t>ethylene glycol</t>
   </si>
   <si>
-    <t>air separation, cryogenic</t>
-  </si>
-  <si>
     <t>nitrogen, liquid</t>
   </si>
   <si>
@@ -371,6 +368,9 @@
   </si>
   <si>
     <t>carbon fiber</t>
+  </si>
+  <si>
+    <t>market for nitrogen, liquid</t>
   </si>
 </sst>
 </file>
@@ -727,11 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L353"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -744,11 +743,10 @@
         <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -756,7 +754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -764,7 +762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -772,7 +770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -780,7 +778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -788,7 +786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -796,7 +794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -804,12 +802,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -832,7 +830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -840,7 +838,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -855,7 +853,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -878,7 +876,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -901,7 +899,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -924,7 +922,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -948,7 +946,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -972,7 +970,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -996,8 +994,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1005,7 +1002,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -1013,7 +1010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1021,7 +1018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1029,7 +1026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1037,7 +1034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1045,7 +1042,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -1053,12 +1050,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1081,7 +1078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>37</v>
       </c>
@@ -1089,7 +1086,7 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -1104,7 +1101,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -1128,7 +1125,7 @@
       </c>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -1152,7 +1149,7 @@
       </c>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -1176,7 +1173,7 @@
       </c>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -1201,9 +1198,9 @@
       </c>
       <c r="K33" s="5"/>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="B34" s="6">
         <v>5.3965303593556382E-3</v>
@@ -1221,13 +1218,13 @@
         <v>22</v>
       </c>
       <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>47</v>
-      </c>
-      <c r="K34" s="5"/>
-    </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>48</v>
       </c>
       <c r="B35" s="6">
         <v>1.5947955390334572</v>
@@ -1245,20 +1242,19 @@
         <v>22</v>
       </c>
       <c r="G35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -1266,7 +1262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1274,7 +1270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -1282,7 +1278,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -1290,15 +1286,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>9</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -1306,12 +1302,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -1334,15 +1330,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D46" t="s">
         <v>7</v>
@@ -1354,10 +1350,10 @@
         <v>18</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>39</v>
       </c>
@@ -1381,7 +1377,7 @@
       </c>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>37</v>
       </c>
@@ -1389,7 +1385,7 @@
         <v>2.7881040892193307E-3</v>
       </c>
       <c r="C48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
@@ -1405,7 +1401,7 @@
       </c>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>27</v>
       </c>
@@ -1429,7 +1425,7 @@
       </c>
       <c r="J49" s="5"/>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>44</v>
       </c>
@@ -1454,7 +1450,7 @@
       </c>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>30</v>
       </c>
@@ -1478,9 +1474,9 @@
       </c>
       <c r="J51" s="5"/>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="7" t="s">
-        <v>46</v>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>110</v>
       </c>
       <c r="B52" s="6">
         <v>4.1394052044609669E-3</v>
@@ -1498,11 +1494,11 @@
         <v>22</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>1</v>
       </c>
@@ -1510,7 +1506,7 @@
         <v>0.26319702602230483</v>
       </c>
       <c r="C53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D53" t="s">
         <v>7</v>
@@ -1526,9 +1522,9 @@
       </c>
       <c r="J53" s="5"/>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B54" s="6">
         <v>0.30055762081784387</v>
@@ -1546,20 +1542,19 @@
         <v>22</v>
       </c>
       <c r="G54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J54" s="5"/>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -1567,7 +1562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -1575,7 +1570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -1583,7 +1578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -1591,15 +1586,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>9</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -1607,12 +1602,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -1635,15 +1630,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D65" t="s">
         <v>7</v>
@@ -1655,10 +1650,10 @@
         <v>18</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>27</v>
       </c>
@@ -1681,7 +1676,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>44</v>
       </c>
@@ -1705,15 +1700,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B68" s="8">
         <v>1.6409943571755374</v>
       </c>
       <c r="C68" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
@@ -1725,19 +1720,18 @@
         <v>22</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>2</v>
       </c>
@@ -1745,7 +1739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -1753,7 +1747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -1761,7 +1755,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -1769,15 +1763,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>9</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -1785,12 +1779,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>14</v>
       </c>
@@ -1813,15 +1807,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D79" t="s">
         <v>7</v>
@@ -1833,18 +1827,18 @@
         <v>18</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B80">
         <v>1.4973738296414709</v>
       </c>
       <c r="C80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D80" t="s">
         <v>7</v>
@@ -1856,10 +1850,10 @@
         <v>22</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
         <v>39</v>
       </c>
@@ -1882,7 +1876,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
         <v>27</v>
       </c>
@@ -1905,9 +1899,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B83" s="6">
         <v>0.66453528202786039</v>
@@ -1925,10 +1919,10 @@
         <v>22</v>
       </c>
       <c r="G83" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
         <v>34</v>
       </c>
@@ -1951,16 +1945,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="86" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>2</v>
       </c>
@@ -1968,7 +1961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -1976,7 +1969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -1984,7 +1977,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -1992,15 +1985,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>9</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -2008,12 +2001,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>14</v>
       </c>
@@ -2036,15 +2029,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B95" s="7">
         <v>1</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>7</v>
@@ -2056,21 +2049,21 @@
         <v>18</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B96" s="7">
         <v>-0.70140280561122248</v>
       </c>
       <c r="C96" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D96" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="E96" s="7" t="s">
         <v>40</v>
@@ -2079,10 +2072,10 @@
         <v>22</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
         <v>39</v>
       </c>
@@ -2105,7 +2098,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
         <v>27</v>
       </c>
@@ -2128,15 +2121,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B99" s="7">
         <v>0.97506123357826757</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>7</v>
@@ -2148,12 +2141,12 @@
         <v>22</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B100" s="9">
         <v>2.5005566688933424E-2</v>
@@ -2171,10 +2164,10 @@
         <v>22</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
         <v>34</v>
       </c>
@@ -2197,16 +2190,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="103" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>2</v>
       </c>
@@ -2214,7 +2206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>4</v>
       </c>
@@ -2222,7 +2214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>6</v>
       </c>
@@ -2230,7 +2222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -2238,15 +2230,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>9</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>11</v>
       </c>
@@ -2254,12 +2246,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>14</v>
       </c>
@@ -2273,7 +2265,7 @@
         <v>6</v>
       </c>
       <c r="E111" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F111" t="s">
         <v>11</v>
@@ -2285,15 +2277,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B112" s="7">
         <v>1</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>7</v>
@@ -2305,31 +2297,31 @@
         <v>18</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B113">
         <f>0.623418865196964/1000</f>
         <v>6.2341886519696403E-4</v>
       </c>
       <c r="C113" t="s">
+        <v>66</v>
+      </c>
+      <c r="E113" t="s">
         <v>67</v>
-      </c>
-      <c r="E113" t="s">
-        <v>68</v>
       </c>
       <c r="F113" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G113" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
         <v>39</v>
       </c>
@@ -2352,7 +2344,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
         <v>27</v>
       </c>
@@ -2375,15 +2367,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B116">
         <v>1.6230574629562702</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>7</v>
@@ -2395,12 +2387,12 @@
         <v>22</v>
       </c>
       <c r="H116" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B117" s="6">
         <v>0.74412721358872436</v>
@@ -2418,19 +2410,18 @@
         <v>22</v>
       </c>
       <c r="H117" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="119" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>2</v>
       </c>
@@ -2438,7 +2429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>4</v>
       </c>
@@ -2446,7 +2437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>6</v>
       </c>
@@ -2454,7 +2445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>8</v>
       </c>
@@ -2462,15 +2453,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>9</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>11</v>
       </c>
@@ -2478,12 +2469,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>14</v>
       </c>
@@ -2497,7 +2488,7 @@
         <v>6</v>
       </c>
       <c r="E127" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F127" t="s">
         <v>11</v>
@@ -2509,15 +2500,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B128" s="7">
         <v>1</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>7</v>
@@ -2529,10 +2520,10 @@
         <v>18</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
         <v>39</v>
       </c>
@@ -2556,7 +2547,7 @@
       </c>
       <c r="K129" s="5"/>
     </row>
-    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
         <v>27</v>
       </c>
@@ -2580,7 +2571,7 @@
       </c>
       <c r="K130" s="5"/>
     </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
         <v>44</v>
       </c>
@@ -2604,9 +2595,9 @@
       </c>
       <c r="K131" s="5"/>
     </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B132">
         <v>1.0010853835021709</v>
@@ -2624,13 +2615,13 @@
         <v>22</v>
       </c>
       <c r="H132" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K132" s="5"/>
     </row>
-    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B133" s="6">
         <v>0.33046309696092624</v>
@@ -2648,20 +2639,19 @@
         <v>22</v>
       </c>
       <c r="H133" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K133" s="5"/>
     </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="135" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>2</v>
       </c>
@@ -2669,7 +2659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>4</v>
       </c>
@@ -2677,7 +2667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>6</v>
       </c>
@@ -2685,7 +2675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -2693,15 +2683,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>9</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -2709,12 +2699,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>14</v>
       </c>
@@ -2728,7 +2718,7 @@
         <v>6</v>
       </c>
       <c r="E143" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F143" t="s">
         <v>11</v>
@@ -2740,15 +2730,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B144" s="7">
         <v>1</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D144" s="7" t="s">
         <v>7</v>
@@ -2760,10 +2750,10 @@
         <v>18</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
         <v>27</v>
       </c>
@@ -2786,7 +2776,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
         <v>44</v>
       </c>
@@ -2809,15 +2799,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B147" s="7">
         <v>0.99496583962603369</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D147" s="7" t="s">
         <v>7</v>
@@ -2829,12 +2819,12 @@
         <v>22</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B148">
         <v>5.0017979144192735E-3</v>
@@ -2852,19 +2842,18 @@
         <v>22</v>
       </c>
       <c r="H148" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="150" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>2</v>
       </c>
@@ -2872,7 +2861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>4</v>
       </c>
@@ -2880,7 +2869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>6</v>
       </c>
@@ -2888,7 +2877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>8</v>
       </c>
@@ -2896,15 +2885,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>9</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>11</v>
       </c>
@@ -2912,12 +2901,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>14</v>
       </c>
@@ -2931,7 +2920,7 @@
         <v>6</v>
       </c>
       <c r="E158" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F158" t="s">
         <v>11</v>
@@ -2943,15 +2932,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B159" s="7">
         <v>1</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D159" s="7" t="s">
         <v>7</v>
@@ -2963,10 +2952,10 @@
         <v>18</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="7" t="s">
         <v>39</v>
       </c>
@@ -2990,7 +2979,7 @@
       </c>
       <c r="K160" s="5"/>
     </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="7" t="s">
         <v>27</v>
       </c>
@@ -3014,15 +3003,15 @@
       </c>
       <c r="K161" s="5"/>
     </row>
-    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B162" s="7">
         <v>1</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D162" s="7" t="s">
         <v>7</v>
@@ -3034,20 +3023,19 @@
         <v>22</v>
       </c>
       <c r="H162" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K162" s="5"/>
     </row>
-    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="164" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>2</v>
       </c>
@@ -3055,7 +3043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>4</v>
       </c>
@@ -3063,7 +3051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>6</v>
       </c>
@@ -3071,7 +3059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>8</v>
       </c>
@@ -3079,15 +3067,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>9</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>11</v>
       </c>
@@ -3095,12 +3083,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>14</v>
       </c>
@@ -3114,7 +3102,7 @@
         <v>6</v>
       </c>
       <c r="E172" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F172" t="s">
         <v>11</v>
@@ -3126,15 +3114,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B173" s="7">
         <v>1</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D173" s="7" t="s">
         <v>7</v>
@@ -3147,10 +3135,10 @@
         <v>18</v>
       </c>
       <c r="H173" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="7" t="s">
         <v>39</v>
       </c>
@@ -3175,7 +3163,7 @@
       </c>
       <c r="J174" s="5"/>
     </row>
-    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="7" t="s">
         <v>27</v>
       </c>
@@ -3200,15 +3188,15 @@
       </c>
       <c r="J175" s="5"/>
     </row>
-    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B176" s="7">
         <v>1</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D176" s="7" t="s">
         <v>7</v>
@@ -3221,11 +3209,11 @@
         <v>22</v>
       </c>
       <c r="H176" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J176" s="5"/>
     </row>
-    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="7" t="s">
         <v>34</v>
       </c>
@@ -3250,16 +3238,15 @@
       </c>
       <c r="J177" s="5"/>
     </row>
-    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="179" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>2</v>
       </c>
@@ -3267,7 +3254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>4</v>
       </c>
@@ -3275,7 +3262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>6</v>
       </c>
@@ -3283,7 +3270,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>8</v>
       </c>
@@ -3291,15 +3278,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>9</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>11</v>
       </c>
@@ -3307,12 +3294,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>14</v>
       </c>
@@ -3326,7 +3313,7 @@
         <v>6</v>
       </c>
       <c r="E187" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F187" t="s">
         <v>11</v>
@@ -3340,13 +3327,13 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B188" s="7">
         <v>1</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D188" s="7" t="s">
         <v>7</v>
@@ -3359,10 +3346,10 @@
         <v>18</v>
       </c>
       <c r="H188" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" s="7" t="s">
         <v>27</v>
       </c>
@@ -3386,97 +3373,96 @@
         <v>29</v>
       </c>
     </row>
-    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B190">
         <v>1.2598425196850395E-2</v>
       </c>
       <c r="C190" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E190" t="s">
         <v>67</v>
       </c>
-      <c r="E190" t="s">
+      <c r="F190" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G190" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F190" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G190" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B191">
         <v>1.629106706489275E-3</v>
       </c>
       <c r="C191" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E191" t="s">
         <v>67</v>
       </c>
-      <c r="E191" t="s">
+      <c r="F191" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G191" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F191" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G191" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B192">
         <v>7.4287265815910948E-3</v>
       </c>
       <c r="C192" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E192" t="s">
         <v>67</v>
       </c>
-      <c r="E192" t="s">
+      <c r="F192" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G192" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F192" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G192" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B193">
         <f>0.207439587292968/1000</f>
         <v>2.0743958729296799E-4</v>
       </c>
       <c r="C193" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E193" t="s">
         <v>67</v>
-      </c>
-      <c r="E193" t="s">
-        <v>68</v>
       </c>
       <c r="F193" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G193" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="195" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>2</v>
       </c>
@@ -3484,7 +3470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>4</v>
       </c>
@@ -3492,7 +3478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>6</v>
       </c>
@@ -3500,7 +3486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>8</v>
       </c>
@@ -3508,15 +3494,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>9</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>11</v>
       </c>
@@ -3524,12 +3510,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>14</v>
       </c>
@@ -3543,7 +3529,7 @@
         <v>6</v>
       </c>
       <c r="E203" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F203" t="s">
         <v>11</v>
@@ -3557,13 +3543,13 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B204" s="7">
         <v>1</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D204" s="7" t="s">
         <v>7</v>
@@ -3576,10 +3562,10 @@
         <v>18</v>
       </c>
       <c r="H204" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="7" t="s">
         <v>27</v>
       </c>
@@ -3603,9 +3589,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B206">
         <v>0.19081632653061226</v>
@@ -3623,93 +3609,93 @@
         <v>22</v>
       </c>
       <c r="H206" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B207">
         <v>0.70204081632653059</v>
       </c>
       <c r="C207" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E207" t="s">
         <v>67</v>
       </c>
-      <c r="E207" t="s">
+      <c r="F207" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G207" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F207" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G207" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B208">
         <v>3.4406307977736557</v>
       </c>
       <c r="C208" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E208" t="s">
         <v>67</v>
       </c>
-      <c r="E208" t="s">
+      <c r="F208" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G208" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F208" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G208" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B209">
         <v>9.9907235621521338E-3</v>
       </c>
       <c r="C209" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E209" t="s">
         <v>67</v>
       </c>
-      <c r="E209" t="s">
+      <c r="F209" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G209" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F209" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G209" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B210">
         <f>0.474025974025974/1000</f>
         <v>4.7402597402597401E-4</v>
       </c>
       <c r="C210" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E210" t="s">
         <v>67</v>
-      </c>
-      <c r="E210" t="s">
-        <v>68</v>
       </c>
       <c r="F210" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G210" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B211">
         <v>0.98979591836734704</v>
@@ -3727,10 +3713,10 @@
         <v>22</v>
       </c>
       <c r="H211" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" s="7" t="s">
         <v>39</v>
       </c>
@@ -3754,16 +3740,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="214" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>2</v>
       </c>
@@ -3771,7 +3756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>4</v>
       </c>
@@ -3779,7 +3764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>6</v>
       </c>
@@ -3787,7 +3772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>8</v>
       </c>
@@ -3795,15 +3780,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>9</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>11</v>
       </c>
@@ -3811,12 +3796,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="221" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>14</v>
       </c>
@@ -3830,7 +3815,7 @@
         <v>6</v>
       </c>
       <c r="E222" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F222" t="s">
         <v>11</v>
@@ -3842,15 +3827,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B223" s="7">
         <v>1</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D223" s="7" t="s">
         <v>7</v>
@@ -3863,10 +3848,10 @@
         <v>18</v>
       </c>
       <c r="H223" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" s="7" t="s">
         <v>39</v>
       </c>
@@ -3891,7 +3876,7 @@
       </c>
       <c r="L224" s="5"/>
     </row>
-    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" s="7" t="s">
         <v>27</v>
       </c>
@@ -3916,9 +3901,9 @@
       </c>
       <c r="L225" s="5"/>
     </row>
-    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B226">
         <v>8.7894526568118261E-2</v>
@@ -3936,19 +3921,19 @@
         <v>22</v>
       </c>
       <c r="H226" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L226" s="5"/>
     </row>
-    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B227" s="7">
         <v>1.1106671993607669</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D227" s="7" t="s">
         <v>7</v>
@@ -3961,19 +3946,19 @@
         <v>22</v>
       </c>
       <c r="H227" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L227" s="5"/>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B228" s="7">
         <v>14.710347582900519</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D228" s="7" t="s">
         <v>7</v>
@@ -3986,20 +3971,19 @@
         <v>22</v>
       </c>
       <c r="H228" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L228" s="5"/>
     </row>
-    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="230" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>2</v>
       </c>
@@ -4007,7 +3991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>4</v>
       </c>
@@ -4015,7 +3999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>6</v>
       </c>
@@ -4023,7 +4007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>8</v>
       </c>
@@ -4031,15 +4015,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>9</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>11</v>
       </c>
@@ -4047,12 +4031,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="237" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>14</v>
       </c>
@@ -4066,7 +4050,7 @@
         <v>6</v>
       </c>
       <c r="E238" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F238" t="s">
         <v>11</v>
@@ -4078,15 +4062,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B239" s="7">
         <v>1</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D239" s="7" t="s">
         <v>7</v>
@@ -4099,10 +4083,10 @@
         <v>18</v>
       </c>
       <c r="H239" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240" s="7" t="s">
         <v>27</v>
       </c>
@@ -4126,7 +4110,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" s="7" t="s">
         <v>44</v>
       </c>
@@ -4149,15 +4133,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B242" s="7">
         <v>1.9992012779552717</v>
       </c>
       <c r="C242" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D242" s="7" t="s">
         <v>7</v>
@@ -4170,12 +4154,12 @@
         <v>22</v>
       </c>
       <c r="H242" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="B243" s="6">
         <v>5.2819488817891376</v>
@@ -4193,12 +4177,12 @@
         <v>22</v>
       </c>
       <c r="H243" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
-        <v>48</v>
       </c>
       <c r="B244" s="6">
         <v>1.4832268370607029</v>
@@ -4216,18 +4200,18 @@
         <v>22</v>
       </c>
       <c r="H244" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B245" s="7">
         <v>6.2819488817891376</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D245" s="7" t="s">
         <v>7</v>
@@ -4240,19 +4224,18 @@
         <v>22</v>
       </c>
       <c r="H245" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="247" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>2</v>
       </c>
@@ -4260,7 +4243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>4</v>
       </c>
@@ -4268,7 +4251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>6</v>
       </c>
@@ -4276,7 +4259,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>8</v>
       </c>
@@ -4284,15 +4267,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>9</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>11</v>
       </c>
@@ -4300,12 +4283,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>14</v>
       </c>
@@ -4319,7 +4302,7 @@
         <v>6</v>
       </c>
       <c r="E255" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F255" t="s">
         <v>11</v>
@@ -4331,15 +4314,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B256" s="7">
         <v>1</v>
       </c>
       <c r="C256" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D256" s="7" t="s">
         <v>7</v>
@@ -4352,10 +4335,10 @@
         <v>18</v>
       </c>
       <c r="H256" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="7" t="s">
         <v>27</v>
       </c>
@@ -4379,7 +4362,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="7" t="s">
         <v>44</v>
       </c>
@@ -4402,15 +4385,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B259" s="7">
         <v>1.252</v>
       </c>
       <c r="C259" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D259" s="7" t="s">
         <v>7</v>
@@ -4423,12 +4406,12 @@
         <v>22</v>
       </c>
       <c r="H259" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="B260" s="6">
         <v>2.3479999999999999</v>
@@ -4446,18 +4429,18 @@
         <v>22</v>
       </c>
       <c r="H260" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B261" s="7">
         <v>2.9119999999999999</v>
       </c>
       <c r="C261" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D261" s="7" t="s">
         <v>7</v>
@@ -4470,19 +4453,18 @@
         <v>22</v>
       </c>
       <c r="H261" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="263" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>2</v>
       </c>
@@ -4490,7 +4472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>4</v>
       </c>
@@ -4498,7 +4480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>6</v>
       </c>
@@ -4506,7 +4488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>8</v>
       </c>
@@ -4514,15 +4496,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>9</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>11</v>
       </c>
@@ -4530,12 +4512,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="270" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>14</v>
       </c>
@@ -4549,7 +4531,7 @@
         <v>6</v>
       </c>
       <c r="E271" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F271" t="s">
         <v>11</v>
@@ -4561,15 +4543,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B272" s="7">
         <v>1</v>
       </c>
       <c r="C272" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D272" s="7" t="s">
         <v>7</v>
@@ -4582,12 +4564,12 @@
         <v>18</v>
       </c>
       <c r="H272" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A273" s="7" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="B273" s="5">
         <v>2.0019900497512438E-2</v>
@@ -4605,11 +4587,11 @@
         <v>22</v>
       </c>
       <c r="H273" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K273" s="5"/>
     </row>
-    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A274" s="7" t="s">
         <v>39</v>
       </c>
@@ -4634,7 +4616,7 @@
       </c>
       <c r="K274" s="5"/>
     </row>
-    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A275" s="7" t="s">
         <v>27</v>
       </c>
@@ -4659,7 +4641,7 @@
       </c>
       <c r="K275" s="5"/>
     </row>
-    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A276" s="7" t="s">
         <v>44</v>
       </c>
@@ -4683,15 +4665,15 @@
       </c>
       <c r="K276" s="5"/>
     </row>
-    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A277" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B277" s="7">
         <v>0.97960199004975135</v>
       </c>
       <c r="C277" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D277" s="7" t="s">
         <v>7</v>
@@ -4704,11 +4686,11 @@
         <v>22</v>
       </c>
       <c r="H277" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K277" s="5"/>
     </row>
-    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A278" s="7" t="s">
         <v>34</v>
       </c>
@@ -4733,9 +4715,9 @@
       </c>
       <c r="K278" s="5"/>
     </row>
-    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A279" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B279" s="7">
         <f>0.1763/1.005</f>
@@ -4754,19 +4736,18 @@
         <v>22</v>
       </c>
       <c r="H279" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="281" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>2</v>
       </c>
@@ -4774,7 +4755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>4</v>
       </c>
@@ -4782,7 +4763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>6</v>
       </c>
@@ -4790,7 +4771,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>8</v>
       </c>
@@ -4798,15 +4779,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>9</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>11</v>
       </c>
@@ -4814,12 +4795,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>14</v>
       </c>
@@ -4833,7 +4814,7 @@
         <v>6</v>
       </c>
       <c r="E289" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F289" t="s">
         <v>11</v>
@@ -4845,15 +4826,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B290" s="7">
         <v>1</v>
       </c>
       <c r="C290" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D290" s="7" t="s">
         <v>7</v>
@@ -4866,18 +4847,18 @@
         <v>18</v>
       </c>
       <c r="H290" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B291" s="7">
         <v>0.92032967032967017</v>
       </c>
       <c r="C291" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D291" s="7" t="s">
         <v>7</v>
@@ -4890,10 +4871,10 @@
         <v>22</v>
       </c>
       <c r="H291" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" s="7" t="s">
         <v>39</v>
       </c>
@@ -4917,7 +4898,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" s="7" t="s">
         <v>27</v>
       </c>
@@ -4941,9 +4922,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B294" s="7">
         <v>0.4495421245421245</v>
@@ -4961,19 +4942,18 @@
         <v>22</v>
       </c>
       <c r="H294" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="296" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>2</v>
       </c>
@@ -4981,7 +4961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>4</v>
       </c>
@@ -4989,7 +4969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>6</v>
       </c>
@@ -4997,7 +4977,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>8</v>
       </c>
@@ -5005,15 +4985,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>9</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>11</v>
       </c>
@@ -5021,12 +5001,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>14</v>
       </c>
@@ -5040,7 +5020,7 @@
         <v>6</v>
       </c>
       <c r="E304" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F304" t="s">
         <v>11</v>
@@ -5052,15 +5032,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B305" s="7">
         <v>1</v>
       </c>
       <c r="C305" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D305" s="7" t="s">
         <v>7</v>
@@ -5073,18 +5053,18 @@
         <v>18</v>
       </c>
       <c r="H305" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B306" s="7">
         <v>1.0758620689655174</v>
       </c>
       <c r="C306" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D306" s="7" t="s">
         <v>7</v>
@@ -5097,10 +5077,10 @@
         <v>22</v>
       </c>
       <c r="H306" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" s="7" t="s">
         <v>27</v>
       </c>
@@ -5124,9 +5104,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B308" s="6">
         <v>8.8669950738916259E-2</v>
@@ -5144,19 +5124,18 @@
         <v>22</v>
       </c>
       <c r="H308" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="310" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>2</v>
       </c>
@@ -5164,7 +5143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>4</v>
       </c>
@@ -5172,7 +5151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>6</v>
       </c>
@@ -5180,7 +5159,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>8</v>
       </c>
@@ -5188,15 +5167,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>9</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>11</v>
       </c>
@@ -5204,12 +5183,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="317" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>14</v>
       </c>
@@ -5223,7 +5202,7 @@
         <v>6</v>
       </c>
       <c r="E318" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F318" t="s">
         <v>11</v>
@@ -5235,15 +5214,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B319" s="7">
         <v>1</v>
       </c>
       <c r="C319" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D319" s="7" t="s">
         <v>7</v>
@@ -5256,18 +5235,18 @@
         <v>18</v>
       </c>
       <c r="H319" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B320" s="7">
         <v>0.98927875243664709</v>
       </c>
       <c r="C320" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D320" s="7" t="s">
         <v>7</v>
@@ -5280,10 +5259,10 @@
         <v>22</v>
       </c>
       <c r="H320" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" s="7" t="s">
         <v>39</v>
       </c>
@@ -5307,7 +5286,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" s="7" t="s">
         <v>27</v>
       </c>
@@ -5331,9 +5310,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B323" s="5">
         <v>9.8927875243664705E-3</v>
@@ -5351,10 +5330,10 @@
         <v>22</v>
       </c>
       <c r="H323" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" s="7" t="s">
         <v>34</v>
       </c>
@@ -5378,16 +5357,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="326" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>2</v>
       </c>
@@ -5395,7 +5373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>4</v>
       </c>
@@ -5403,7 +5381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>6</v>
       </c>
@@ -5411,7 +5389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>8</v>
       </c>
@@ -5419,15 +5397,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>9</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>11</v>
       </c>
@@ -5435,12 +5413,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="333" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>14</v>
       </c>
@@ -5454,7 +5432,7 @@
         <v>6</v>
       </c>
       <c r="E334" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F334" t="s">
         <v>11</v>
@@ -5466,15 +5444,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B335" s="7">
         <v>1</v>
       </c>
       <c r="C335" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D335" s="7" t="s">
         <v>7</v>
@@ -5487,18 +5465,18 @@
         <v>18</v>
       </c>
       <c r="H335" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B336" s="7">
         <v>1.026</v>
       </c>
       <c r="C336" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D336" s="7" t="s">
         <v>7</v>
@@ -5511,10 +5489,10 @@
         <v>22</v>
       </c>
       <c r="H336" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" s="7" t="s">
         <v>39</v>
       </c>
@@ -5538,7 +5516,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338" s="7" t="s">
         <v>27</v>
       </c>
@@ -5562,9 +5540,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B339" s="6">
         <v>3.0620000000000001E-2</v>
@@ -5582,19 +5560,18 @@
         <v>22</v>
       </c>
       <c r="H339" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="341" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>2</v>
       </c>
@@ -5602,7 +5579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>4</v>
       </c>
@@ -5610,7 +5587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>6</v>
       </c>
@@ -5618,7 +5595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>8</v>
       </c>
@@ -5626,15 +5603,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>9</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>11</v>
       </c>
@@ -5642,12 +5619,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>14</v>
       </c>
@@ -5661,7 +5638,7 @@
         <v>6</v>
       </c>
       <c r="E349" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F349" t="s">
         <v>11</v>
@@ -5673,15 +5650,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B350" s="7">
         <v>1</v>
       </c>
       <c r="C350" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D350" s="7" t="s">
         <v>7</v>
@@ -5694,18 +5671,18 @@
         <v>18</v>
       </c>
       <c r="H350" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B351" s="7">
         <v>1</v>
       </c>
       <c r="C351" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D351" s="7" t="s">
         <v>7</v>
@@ -5718,10 +5695,10 @@
         <v>22</v>
       </c>
       <c r="H351" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" s="7" t="s">
         <v>39</v>
       </c>
@@ -5745,7 +5722,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353" s="7" t="s">
         <v>27</v>
       </c>
@@ -5770,15 +5747,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L353" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Exhaust gas treatment 1"/>
-        <filter val="Exhaust gas treatment 2"/>
-        <filter val="treatment of wastewater, average, capacity 1E9l/year"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L353" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/premise/data/additional_inventories/lci-carbon-fiber.xlsx
+++ b/premise/data/additional_inventories/lci-carbon-fiber.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D417716-946B-6748-AF48-28D56857EB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB1716B-3EB6-D043-9D0B-14CB8817D81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34600" yWindow="2780" windowWidth="25520" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="25520" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Carbon fiber" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Carbon fiber'!$A$1:$L$353</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="manual"/>
+  <calcPr calcId="191029" calcMode="manual" iterate="1" iterateCount="10" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -178,6 +178,9 @@
     <t>ethylene glycol</t>
   </si>
   <si>
+    <t>air separation, cryogenic</t>
+  </si>
+  <si>
     <t>nitrogen, liquid</t>
   </si>
   <si>
@@ -368,9 +371,6 @@
   </si>
   <si>
     <t>carbon fiber</t>
-  </si>
-  <si>
-    <t>market for nitrogen, liquid</t>
   </si>
 </sst>
 </file>
@@ -727,10 +727,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L353"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -743,10 +744,11 @@
         <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -754,7 +756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -762,7 +764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -770,7 +772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -778,7 +780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -786,7 +788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -794,7 +796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -802,12 +804,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -830,7 +832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -838,7 +840,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -853,7 +855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -876,7 +878,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -899,7 +901,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -922,7 +924,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -946,7 +948,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -970,7 +972,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -994,7 +996,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1002,7 +1005,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -1010,7 +1013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1018,7 +1021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1026,7 +1029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1034,7 +1037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1042,7 +1045,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -1050,12 +1053,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1078,7 +1081,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>37</v>
       </c>
@@ -1086,7 +1089,7 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -1101,7 +1104,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -1125,7 +1128,7 @@
       </c>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -1149,7 +1152,7 @@
       </c>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -1173,7 +1176,7 @@
       </c>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -1198,9 +1201,9 @@
       </c>
       <c r="K33" s="5"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="B34" s="6">
         <v>5.3965303593556382E-3</v>
@@ -1218,13 +1221,13 @@
         <v>22</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K34" s="5"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B35" s="6">
         <v>1.5947955390334572</v>
@@ -1242,19 +1245,20 @@
         <v>22</v>
       </c>
       <c r="G35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K35" s="5"/>
     </row>
-    <row r="37" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -1262,7 +1266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1270,7 +1274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -1278,7 +1282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -1286,15 +1290,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>9</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -1302,12 +1306,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -1330,15 +1334,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D46" t="s">
         <v>7</v>
@@ -1350,10 +1354,10 @@
         <v>18</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>39</v>
       </c>
@@ -1377,7 +1381,7 @@
       </c>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>37</v>
       </c>
@@ -1385,7 +1389,7 @@
         <v>2.7881040892193307E-3</v>
       </c>
       <c r="C48" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
@@ -1401,7 +1405,7 @@
       </c>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>27</v>
       </c>
@@ -1425,7 +1429,7 @@
       </c>
       <c r="J49" s="5"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>44</v>
       </c>
@@ -1450,7 +1454,7 @@
       </c>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>30</v>
       </c>
@@ -1474,9 +1478,9 @@
       </c>
       <c r="J51" s="5"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>110</v>
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="B52" s="6">
         <v>4.1394052044609669E-3</v>
@@ -1494,11 +1498,11 @@
         <v>22</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>1</v>
       </c>
@@ -1506,7 +1510,7 @@
         <v>0.26319702602230483</v>
       </c>
       <c r="C53" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D53" t="s">
         <v>7</v>
@@ -1522,9 +1526,9 @@
       </c>
       <c r="J53" s="5"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B54" s="6">
         <v>0.30055762081784387</v>
@@ -1542,19 +1546,20 @@
         <v>22</v>
       </c>
       <c r="G54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J54" s="5"/>
     </row>
-    <row r="56" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -1562,7 +1567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -1570,7 +1575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -1578,7 +1583,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -1586,15 +1591,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>9</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -1602,12 +1607,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -1630,15 +1635,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D65" t="s">
         <v>7</v>
@@ -1650,10 +1655,10 @@
         <v>18</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>27</v>
       </c>
@@ -1676,7 +1681,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>44</v>
       </c>
@@ -1700,15 +1705,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B68" s="8">
         <v>1.6409943571755374</v>
       </c>
       <c r="C68" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
@@ -1720,18 +1725,19 @@
         <v>22</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>2</v>
       </c>
@@ -1739,7 +1745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -1747,7 +1753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -1755,7 +1761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -1763,15 +1769,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>9</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -1779,12 +1785,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>14</v>
       </c>
@@ -1807,15 +1813,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D79" t="s">
         <v>7</v>
@@ -1827,18 +1833,18 @@
         <v>18</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B80">
         <v>1.4973738296414709</v>
       </c>
       <c r="C80" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D80" t="s">
         <v>7</v>
@@ -1850,10 +1856,10 @@
         <v>22</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
         <v>39</v>
       </c>
@@ -1876,7 +1882,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
         <v>27</v>
       </c>
@@ -1899,9 +1905,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B83" s="6">
         <v>0.66453528202786039</v>
@@ -1919,10 +1925,10 @@
         <v>22</v>
       </c>
       <c r="G83" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
         <v>34</v>
       </c>
@@ -1945,15 +1951,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="86" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>2</v>
       </c>
@@ -1961,7 +1968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -1969,7 +1976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -1977,7 +1984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -1985,15 +1992,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>9</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -2001,12 +2008,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>14</v>
       </c>
@@ -2029,15 +2036,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B95" s="7">
         <v>1</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>7</v>
@@ -2049,21 +2056,21 @@
         <v>18</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B96" s="7">
         <v>-0.70140280561122248</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E96" s="7" t="s">
         <v>40</v>
@@ -2072,10 +2079,10 @@
         <v>22</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
         <v>39</v>
       </c>
@@ -2098,7 +2105,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
         <v>27</v>
       </c>
@@ -2121,15 +2128,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B99" s="7">
         <v>0.97506123357826757</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>7</v>
@@ -2141,12 +2148,12 @@
         <v>22</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B100" s="9">
         <v>2.5005566688933424E-2</v>
@@ -2164,10 +2171,10 @@
         <v>22</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
         <v>34</v>
       </c>
@@ -2190,15 +2197,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="103" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>2</v>
       </c>
@@ -2206,7 +2214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>4</v>
       </c>
@@ -2214,7 +2222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>6</v>
       </c>
@@ -2222,7 +2230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -2230,15 +2238,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>9</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>11</v>
       </c>
@@ -2246,12 +2254,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>14</v>
       </c>
@@ -2265,7 +2273,7 @@
         <v>6</v>
       </c>
       <c r="E111" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F111" t="s">
         <v>11</v>
@@ -2277,15 +2285,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B112" s="7">
         <v>1</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>7</v>
@@ -2297,31 +2305,31 @@
         <v>18</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B113">
         <f>0.623418865196964/1000</f>
         <v>6.2341886519696403E-4</v>
       </c>
       <c r="C113" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E113" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F113" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G113" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
         <v>39</v>
       </c>
@@ -2344,7 +2352,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
         <v>27</v>
       </c>
@@ -2367,15 +2375,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B116">
         <v>1.6230574629562702</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>7</v>
@@ -2387,12 +2395,12 @@
         <v>22</v>
       </c>
       <c r="H116" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B117" s="6">
         <v>0.74412721358872436</v>
@@ -2410,18 +2418,19 @@
         <v>22</v>
       </c>
       <c r="H117" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="119" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>2</v>
       </c>
@@ -2429,7 +2438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>4</v>
       </c>
@@ -2437,7 +2446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>6</v>
       </c>
@@ -2445,7 +2454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>8</v>
       </c>
@@ -2453,15 +2462,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>9</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>11</v>
       </c>
@@ -2469,12 +2478,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>14</v>
       </c>
@@ -2488,7 +2497,7 @@
         <v>6</v>
       </c>
       <c r="E127" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F127" t="s">
         <v>11</v>
@@ -2500,15 +2509,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B128" s="7">
         <v>1</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>7</v>
@@ -2520,10 +2529,10 @@
         <v>18</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
         <v>39</v>
       </c>
@@ -2547,7 +2556,7 @@
       </c>
       <c r="K129" s="5"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
         <v>27</v>
       </c>
@@ -2571,7 +2580,7 @@
       </c>
       <c r="K130" s="5"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
         <v>44</v>
       </c>
@@ -2595,9 +2604,9 @@
       </c>
       <c r="K131" s="5"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B132">
         <v>1.0010853835021709</v>
@@ -2615,13 +2624,13 @@
         <v>22</v>
       </c>
       <c r="H132" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K132" s="5"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B133" s="6">
         <v>0.33046309696092624</v>
@@ -2639,19 +2648,20 @@
         <v>22</v>
       </c>
       <c r="H133" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K133" s="5"/>
     </row>
-    <row r="135" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="135" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>2</v>
       </c>
@@ -2659,7 +2669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>4</v>
       </c>
@@ -2667,7 +2677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>6</v>
       </c>
@@ -2675,7 +2685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -2683,15 +2693,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>9</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -2699,12 +2709,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>14</v>
       </c>
@@ -2718,7 +2728,7 @@
         <v>6</v>
       </c>
       <c r="E143" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F143" t="s">
         <v>11</v>
@@ -2730,15 +2740,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B144" s="7">
         <v>1</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D144" s="7" t="s">
         <v>7</v>
@@ -2750,10 +2760,10 @@
         <v>18</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
         <v>27</v>
       </c>
@@ -2776,7 +2786,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
         <v>44</v>
       </c>
@@ -2799,15 +2809,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B147" s="7">
         <v>0.99496583962603369</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D147" s="7" t="s">
         <v>7</v>
@@ -2819,12 +2829,12 @@
         <v>22</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B148">
         <v>5.0017979144192735E-3</v>
@@ -2842,18 +2852,19 @@
         <v>22</v>
       </c>
       <c r="H148" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="150" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>2</v>
       </c>
@@ -2861,7 +2872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>4</v>
       </c>
@@ -2869,7 +2880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>6</v>
       </c>
@@ -2877,7 +2888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>8</v>
       </c>
@@ -2885,15 +2896,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>9</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>11</v>
       </c>
@@ -2901,12 +2912,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>14</v>
       </c>
@@ -2920,7 +2931,7 @@
         <v>6</v>
       </c>
       <c r="E158" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F158" t="s">
         <v>11</v>
@@ -2932,15 +2943,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B159" s="7">
         <v>1</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D159" s="7" t="s">
         <v>7</v>
@@ -2952,10 +2963,10 @@
         <v>18</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="7" t="s">
         <v>39</v>
       </c>
@@ -2979,7 +2990,7 @@
       </c>
       <c r="K160" s="5"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="7" t="s">
         <v>27</v>
       </c>
@@ -3003,15 +3014,15 @@
       </c>
       <c r="K161" s="5"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B162" s="7">
         <v>1</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D162" s="7" t="s">
         <v>7</v>
@@ -3023,19 +3034,20 @@
         <v>22</v>
       </c>
       <c r="H162" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K162" s="5"/>
     </row>
-    <row r="164" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="164" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>2</v>
       </c>
@@ -3043,7 +3055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>4</v>
       </c>
@@ -3051,7 +3063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>6</v>
       </c>
@@ -3059,7 +3071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>8</v>
       </c>
@@ -3067,15 +3079,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>9</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>11</v>
       </c>
@@ -3083,12 +3095,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>14</v>
       </c>
@@ -3102,7 +3114,7 @@
         <v>6</v>
       </c>
       <c r="E172" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F172" t="s">
         <v>11</v>
@@ -3114,15 +3126,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B173" s="7">
         <v>1</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D173" s="7" t="s">
         <v>7</v>
@@ -3135,10 +3147,10 @@
         <v>18</v>
       </c>
       <c r="H173" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="7" t="s">
         <v>39</v>
       </c>
@@ -3163,7 +3175,7 @@
       </c>
       <c r="J174" s="5"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="7" t="s">
         <v>27</v>
       </c>
@@ -3188,15 +3200,15 @@
       </c>
       <c r="J175" s="5"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B176" s="7">
         <v>1</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D176" s="7" t="s">
         <v>7</v>
@@ -3209,11 +3221,11 @@
         <v>22</v>
       </c>
       <c r="H176" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J176" s="5"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="7" t="s">
         <v>34</v>
       </c>
@@ -3238,15 +3250,16 @@
       </c>
       <c r="J177" s="5"/>
     </row>
-    <row r="179" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="179" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>2</v>
       </c>
@@ -3254,7 +3267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>4</v>
       </c>
@@ -3262,7 +3275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>6</v>
       </c>
@@ -3270,7 +3283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>8</v>
       </c>
@@ -3278,15 +3291,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>9</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>11</v>
       </c>
@@ -3294,12 +3307,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>14</v>
       </c>
@@ -3313,7 +3326,7 @@
         <v>6</v>
       </c>
       <c r="E187" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F187" t="s">
         <v>11</v>
@@ -3327,13 +3340,13 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B188" s="7">
         <v>1</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D188" s="7" t="s">
         <v>7</v>
@@ -3346,10 +3359,10 @@
         <v>18</v>
       </c>
       <c r="H188" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="7" t="s">
         <v>27</v>
       </c>
@@ -3373,96 +3386,97 @@
         <v>29</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B190">
         <v>1.2598425196850395E-2</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E190" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F190" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G190" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B191">
         <v>1.629106706489275E-3</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E191" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F191" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G191" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B192">
         <v>7.4287265815910948E-3</v>
       </c>
       <c r="C192" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E192" t="s">
+        <v>68</v>
+      </c>
+      <c r="F192" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G192" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="E192" t="s">
-        <v>67</v>
-      </c>
-      <c r="F192" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G192" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A193" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="B193">
         <f>0.207439587292968/1000</f>
         <v>2.0743958729296799E-4</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E193" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F193" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G193" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="195" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>2</v>
       </c>
@@ -3470,7 +3484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>4</v>
       </c>
@@ -3478,7 +3492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>6</v>
       </c>
@@ -3486,7 +3500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>8</v>
       </c>
@@ -3494,15 +3508,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>9</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>11</v>
       </c>
@@ -3510,12 +3524,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>14</v>
       </c>
@@ -3529,7 +3543,7 @@
         <v>6</v>
       </c>
       <c r="E203" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F203" t="s">
         <v>11</v>
@@ -3543,13 +3557,13 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B204" s="7">
         <v>1</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D204" s="7" t="s">
         <v>7</v>
@@ -3562,10 +3576,10 @@
         <v>18</v>
       </c>
       <c r="H204" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="7" t="s">
         <v>27</v>
       </c>
@@ -3589,9 +3603,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B206">
         <v>0.19081632653061226</v>
@@ -3609,93 +3623,93 @@
         <v>22</v>
       </c>
       <c r="H206" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B207">
         <v>0.70204081632653059</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E207" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F207" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G207" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B208">
         <v>3.4406307977736557</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E208" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F208" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G208" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B209">
         <v>9.9907235621521338E-3</v>
       </c>
       <c r="C209" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E209" t="s">
+        <v>68</v>
+      </c>
+      <c r="F209" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G209" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="E209" t="s">
-        <v>67</v>
-      </c>
-      <c r="F209" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G209" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A210" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="B210">
         <f>0.474025974025974/1000</f>
         <v>4.7402597402597401E-4</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E210" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F210" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G210" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B211">
         <v>0.98979591836734704</v>
@@ -3713,10 +3727,10 @@
         <v>22</v>
       </c>
       <c r="H211" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="7" t="s">
         <v>39</v>
       </c>
@@ -3740,15 +3754,16 @@
         <v>41</v>
       </c>
     </row>
-    <row r="214" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="214" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>2</v>
       </c>
@@ -3756,7 +3771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>4</v>
       </c>
@@ -3764,7 +3779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>6</v>
       </c>
@@ -3772,7 +3787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>8</v>
       </c>
@@ -3780,15 +3795,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>9</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>11</v>
       </c>
@@ -3796,12 +3811,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="221" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>14</v>
       </c>
@@ -3815,7 +3830,7 @@
         <v>6</v>
       </c>
       <c r="E222" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F222" t="s">
         <v>11</v>
@@ -3827,15 +3842,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B223" s="7">
         <v>1</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D223" s="7" t="s">
         <v>7</v>
@@ -3848,10 +3863,10 @@
         <v>18</v>
       </c>
       <c r="H223" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="7" t="s">
         <v>39</v>
       </c>
@@ -3876,7 +3891,7 @@
       </c>
       <c r="L224" s="5"/>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="7" t="s">
         <v>27</v>
       </c>
@@ -3901,9 +3916,9 @@
       </c>
       <c r="L225" s="5"/>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B226">
         <v>8.7894526568118261E-2</v>
@@ -3921,19 +3936,19 @@
         <v>22</v>
       </c>
       <c r="H226" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L226" s="5"/>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B227" s="7">
         <v>1.1106671993607669</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D227" s="7" t="s">
         <v>7</v>
@@ -3946,19 +3961,19 @@
         <v>22</v>
       </c>
       <c r="H227" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L227" s="5"/>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B228" s="7">
         <v>14.710347582900519</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D228" s="7" t="s">
         <v>7</v>
@@ -3971,19 +3986,20 @@
         <v>22</v>
       </c>
       <c r="H228" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L228" s="5"/>
     </row>
-    <row r="230" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="230" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>2</v>
       </c>
@@ -3991,7 +4007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>4</v>
       </c>
@@ -3999,7 +4015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>6</v>
       </c>
@@ -4007,7 +4023,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>8</v>
       </c>
@@ -4015,15 +4031,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>9</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>11</v>
       </c>
@@ -4031,12 +4047,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="237" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>14</v>
       </c>
@@ -4050,7 +4066,7 @@
         <v>6</v>
       </c>
       <c r="E238" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F238" t="s">
         <v>11</v>
@@ -4062,15 +4078,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B239" s="7">
         <v>1</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D239" s="7" t="s">
         <v>7</v>
@@ -4083,10 +4099,10 @@
         <v>18</v>
       </c>
       <c r="H239" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="7" t="s">
         <v>27</v>
       </c>
@@ -4110,7 +4126,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="7" t="s">
         <v>44</v>
       </c>
@@ -4133,15 +4149,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B242" s="7">
         <v>1.9992012779552717</v>
       </c>
       <c r="C242" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D242" s="7" t="s">
         <v>7</v>
@@ -4154,12 +4170,12 @@
         <v>22</v>
       </c>
       <c r="H242" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="B243" s="6">
         <v>5.2819488817891376</v>
@@ -4177,12 +4193,12 @@
         <v>22</v>
       </c>
       <c r="H243" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B244" s="6">
         <v>1.4832268370607029</v>
@@ -4200,18 +4216,18 @@
         <v>22</v>
       </c>
       <c r="H244" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B245" s="7">
         <v>6.2819488817891376</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D245" s="7" t="s">
         <v>7</v>
@@ -4224,18 +4240,19 @@
         <v>22</v>
       </c>
       <c r="H245" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="247" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>2</v>
       </c>
@@ -4243,7 +4260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>4</v>
       </c>
@@ -4251,7 +4268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>6</v>
       </c>
@@ -4259,7 +4276,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>8</v>
       </c>
@@ -4267,15 +4284,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>9</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>11</v>
       </c>
@@ -4283,12 +4300,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>14</v>
       </c>
@@ -4302,7 +4319,7 @@
         <v>6</v>
       </c>
       <c r="E255" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F255" t="s">
         <v>11</v>
@@ -4314,15 +4331,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B256" s="7">
         <v>1</v>
       </c>
       <c r="C256" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D256" s="7" t="s">
         <v>7</v>
@@ -4335,10 +4352,10 @@
         <v>18</v>
       </c>
       <c r="H256" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="7" t="s">
         <v>27</v>
       </c>
@@ -4362,7 +4379,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="7" t="s">
         <v>44</v>
       </c>
@@ -4385,15 +4402,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B259" s="7">
         <v>1.252</v>
       </c>
       <c r="C259" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D259" s="7" t="s">
         <v>7</v>
@@ -4406,12 +4423,12 @@
         <v>22</v>
       </c>
       <c r="H259" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="B260" s="6">
         <v>2.3479999999999999</v>
@@ -4429,18 +4446,18 @@
         <v>22</v>
       </c>
       <c r="H260" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B261" s="7">
         <v>2.9119999999999999</v>
       </c>
       <c r="C261" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D261" s="7" t="s">
         <v>7</v>
@@ -4453,18 +4470,19 @@
         <v>22</v>
       </c>
       <c r="H261" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="263" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>2</v>
       </c>
@@ -4472,7 +4490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>4</v>
       </c>
@@ -4480,7 +4498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>6</v>
       </c>
@@ -4488,7 +4506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>8</v>
       </c>
@@ -4496,15 +4514,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>9</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>11</v>
       </c>
@@ -4512,12 +4530,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="270" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>14</v>
       </c>
@@ -4531,7 +4549,7 @@
         <v>6</v>
       </c>
       <c r="E271" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F271" t="s">
         <v>11</v>
@@ -4543,15 +4561,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B272" s="7">
         <v>1</v>
       </c>
       <c r="C272" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D272" s="7" t="s">
         <v>7</v>
@@ -4564,12 +4582,12 @@
         <v>18</v>
       </c>
       <c r="H272" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B273" s="5">
         <v>2.0019900497512438E-2</v>
@@ -4587,11 +4605,11 @@
         <v>22</v>
       </c>
       <c r="H273" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K273" s="5"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="7" t="s">
         <v>39</v>
       </c>
@@ -4616,7 +4634,7 @@
       </c>
       <c r="K274" s="5"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="7" t="s">
         <v>27</v>
       </c>
@@ -4641,7 +4659,7 @@
       </c>
       <c r="K275" s="5"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="7" t="s">
         <v>44</v>
       </c>
@@ -4665,15 +4683,15 @@
       </c>
       <c r="K276" s="5"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B277" s="7">
         <v>0.97960199004975135</v>
       </c>
       <c r="C277" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D277" s="7" t="s">
         <v>7</v>
@@ -4686,11 +4704,11 @@
         <v>22</v>
       </c>
       <c r="H277" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K277" s="5"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="7" t="s">
         <v>34</v>
       </c>
@@ -4715,9 +4733,9 @@
       </c>
       <c r="K278" s="5"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B279" s="7">
         <f>0.1763/1.005</f>
@@ -4736,18 +4754,19 @@
         <v>22</v>
       </c>
       <c r="H279" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="281" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="281" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>2</v>
       </c>
@@ -4755,7 +4774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>4</v>
       </c>
@@ -4763,7 +4782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>6</v>
       </c>
@@ -4771,7 +4790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>8</v>
       </c>
@@ -4779,15 +4798,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>9</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>11</v>
       </c>
@@ -4795,12 +4814,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>14</v>
       </c>
@@ -4814,7 +4833,7 @@
         <v>6</v>
       </c>
       <c r="E289" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F289" t="s">
         <v>11</v>
@@ -4826,15 +4845,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B290" s="7">
         <v>1</v>
       </c>
       <c r="C290" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D290" s="7" t="s">
         <v>7</v>
@@ -4847,18 +4866,18 @@
         <v>18</v>
       </c>
       <c r="H290" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B291" s="7">
         <v>0.92032967032967017</v>
       </c>
       <c r="C291" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D291" s="7" t="s">
         <v>7</v>
@@ -4871,10 +4890,10 @@
         <v>22</v>
       </c>
       <c r="H291" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="7" t="s">
         <v>39</v>
       </c>
@@ -4898,7 +4917,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="7" t="s">
         <v>27</v>
       </c>
@@ -4922,9 +4941,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B294" s="7">
         <v>0.4495421245421245</v>
@@ -4942,18 +4961,19 @@
         <v>22</v>
       </c>
       <c r="H294" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="296" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>2</v>
       </c>
@@ -4961,7 +4981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>4</v>
       </c>
@@ -4969,7 +4989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>6</v>
       </c>
@@ -4977,7 +4997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>8</v>
       </c>
@@ -4985,15 +5005,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>9</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>11</v>
       </c>
@@ -5001,12 +5021,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>14</v>
       </c>
@@ -5020,7 +5040,7 @@
         <v>6</v>
       </c>
       <c r="E304" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F304" t="s">
         <v>11</v>
@@ -5032,15 +5052,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B305" s="7">
         <v>1</v>
       </c>
       <c r="C305" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D305" s="7" t="s">
         <v>7</v>
@@ -5053,18 +5073,18 @@
         <v>18</v>
       </c>
       <c r="H305" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B306" s="7">
         <v>1.0758620689655174</v>
       </c>
       <c r="C306" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D306" s="7" t="s">
         <v>7</v>
@@ -5077,10 +5097,10 @@
         <v>22</v>
       </c>
       <c r="H306" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="7" t="s">
         <v>27</v>
       </c>
@@ -5104,9 +5124,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B308" s="6">
         <v>8.8669950738916259E-2</v>
@@ -5124,18 +5144,19 @@
         <v>22</v>
       </c>
       <c r="H308" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="310" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>2</v>
       </c>
@@ -5143,7 +5164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>4</v>
       </c>
@@ -5151,7 +5172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>6</v>
       </c>
@@ -5159,7 +5180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>8</v>
       </c>
@@ -5167,15 +5188,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>9</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>11</v>
       </c>
@@ -5183,12 +5204,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="317" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>14</v>
       </c>
@@ -5202,7 +5223,7 @@
         <v>6</v>
       </c>
       <c r="E318" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F318" t="s">
         <v>11</v>
@@ -5214,15 +5235,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B319" s="7">
         <v>1</v>
       </c>
       <c r="C319" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D319" s="7" t="s">
         <v>7</v>
@@ -5235,18 +5256,18 @@
         <v>18</v>
       </c>
       <c r="H319" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B320" s="7">
         <v>0.98927875243664709</v>
       </c>
       <c r="C320" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D320" s="7" t="s">
         <v>7</v>
@@ -5259,10 +5280,10 @@
         <v>22</v>
       </c>
       <c r="H320" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="7" t="s">
         <v>39</v>
       </c>
@@ -5286,7 +5307,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="7" t="s">
         <v>27</v>
       </c>
@@ -5310,9 +5331,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B323" s="5">
         <v>9.8927875243664705E-3</v>
@@ -5330,10 +5351,10 @@
         <v>22</v>
       </c>
       <c r="H323" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="7" t="s">
         <v>34</v>
       </c>
@@ -5357,15 +5378,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="326" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="326" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>2</v>
       </c>
@@ -5373,7 +5395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>4</v>
       </c>
@@ -5381,7 +5403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>6</v>
       </c>
@@ -5389,7 +5411,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>8</v>
       </c>
@@ -5397,15 +5419,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>9</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>11</v>
       </c>
@@ -5413,12 +5435,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="333" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>14</v>
       </c>
@@ -5432,7 +5454,7 @@
         <v>6</v>
       </c>
       <c r="E334" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F334" t="s">
         <v>11</v>
@@ -5444,15 +5466,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B335" s="7">
         <v>1</v>
       </c>
       <c r="C335" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D335" s="7" t="s">
         <v>7</v>
@@ -5465,18 +5487,18 @@
         <v>18</v>
       </c>
       <c r="H335" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B336" s="7">
         <v>1.026</v>
       </c>
       <c r="C336" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D336" s="7" t="s">
         <v>7</v>
@@ -5489,10 +5511,10 @@
         <v>22</v>
       </c>
       <c r="H336" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="7" t="s">
         <v>39</v>
       </c>
@@ -5516,7 +5538,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="7" t="s">
         <v>27</v>
       </c>
@@ -5540,9 +5562,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B339" s="6">
         <v>3.0620000000000001E-2</v>
@@ -5560,18 +5582,19 @@
         <v>22</v>
       </c>
       <c r="H339" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="341" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>2</v>
       </c>
@@ -5579,7 +5602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>4</v>
       </c>
@@ -5587,7 +5610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>6</v>
       </c>
@@ -5595,7 +5618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>8</v>
       </c>
@@ -5603,15 +5626,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>9</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>11</v>
       </c>
@@ -5619,12 +5642,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>14</v>
       </c>
@@ -5638,7 +5661,7 @@
         <v>6</v>
       </c>
       <c r="E349" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F349" t="s">
         <v>11</v>
@@ -5650,15 +5673,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B350" s="7">
         <v>1</v>
       </c>
       <c r="C350" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D350" s="7" t="s">
         <v>7</v>
@@ -5671,18 +5694,18 @@
         <v>18</v>
       </c>
       <c r="H350" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B351" s="7">
         <v>1</v>
       </c>
       <c r="C351" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D351" s="7" t="s">
         <v>7</v>
@@ -5695,10 +5718,10 @@
         <v>22</v>
       </c>
       <c r="H351" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" s="7" t="s">
         <v>39</v>
       </c>
@@ -5722,7 +5745,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" s="7" t="s">
         <v>27</v>
       </c>
@@ -5747,7 +5770,15 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L353" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L353" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Exhaust gas treatment 1"/>
+        <filter val="Exhaust gas treatment 2"/>
+        <filter val="treatment of wastewater, average, capacity 1E9l/year"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/premise/data/additional_inventories/lci-carbon-fiber.xlsx
+++ b/premise/data/additional_inventories/lci-carbon-fiber.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB1716B-3EB6-D043-9D0B-14CB8817D81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DD137B-4463-E94D-9F98-D62014306D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="25520" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Carbon fiber'!$A$1:$L$353</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="manual" iterate="1" iterateCount="10" calcOnSave="0"/>
+  <calcPr calcId="191029" calcMode="manual" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -434,18 +434,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -727,11 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L353"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -740,15 +735,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -756,7 +750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -764,7 +758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -772,7 +766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -780,7 +774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -788,7 +782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -796,7 +790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -804,12 +798,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -832,7 +826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
@@ -855,11 +849,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>49.716101694915253</v>
       </c>
       <c r="C13" t="s">
@@ -878,11 +872,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>1.1200564971751414</v>
       </c>
       <c r="C14" t="s">
@@ -901,11 +895,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>2.5</v>
       </c>
       <c r="C15" t="s">
@@ -924,11 +918,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <f>50/1000</f>
         <v>0.05</v>
       </c>
@@ -948,11 +942,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <f>10/1000</f>
         <v>0.01</v>
       </c>
@@ -972,11 +966,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <f>764.830508474576/1000</f>
         <v>0.76483050847457601</v>
       </c>
@@ -996,8 +990,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1005,7 +998,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -1013,7 +1006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1021,7 +1014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1029,7 +1022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1037,7 +1030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1045,7 +1038,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -1053,12 +1046,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1081,7 +1074,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>37</v>
       </c>
@@ -1104,11 +1097,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="5">
         <v>2.5799256505576211E-3</v>
       </c>
       <c r="C30" t="s">
@@ -1126,13 +1119,13 @@
       <c r="G30" t="s">
         <v>41</v>
       </c>
-      <c r="K30" s="5"/>
-    </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="5">
         <v>3.1548946716232956E-2</v>
       </c>
       <c r="C31" t="s">
@@ -1150,13 +1143,13 @@
       <c r="G31" t="s">
         <v>43</v>
       </c>
-      <c r="K31" s="5"/>
-    </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="5">
         <v>0.11285006195786863</v>
       </c>
       <c r="C32" t="s">
@@ -1174,13 +1167,13 @@
       <c r="G32" t="s">
         <v>29</v>
       </c>
-      <c r="K32" s="5"/>
-    </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <f>0.00242255266418835/1000</f>
         <v>2.4225526641883498E-6</v>
       </c>
@@ -1199,13 +1192,13 @@
       <c r="G33" t="s">
         <v>45</v>
       </c>
-      <c r="K33" s="5"/>
-    </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="5">
         <v>5.3965303593556382E-3</v>
       </c>
       <c r="C34" t="s">
@@ -1223,13 +1216,13 @@
       <c r="G34" t="s">
         <v>47</v>
       </c>
-      <c r="K34" s="5"/>
-    </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="5">
         <v>1.5947955390334572</v>
       </c>
       <c r="C35" t="s">
@@ -1247,10 +1240,9 @@
       <c r="G35" t="s">
         <v>49</v>
       </c>
-      <c r="K35" s="5"/>
-    </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K35" s="4"/>
+    </row>
+    <row r="37" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -1258,7 +1250,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -1266,7 +1258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1274,7 +1266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -1282,7 +1274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -1290,7 +1282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -1298,7 +1290,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -1306,12 +1298,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -1334,8 +1326,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
+    <row r="46" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>50</v>
       </c>
       <c r="B46">
@@ -1357,11 +1349,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="4">
         <v>1.6078066914498141E-3</v>
       </c>
       <c r="C47" t="s">
@@ -1379,10 +1371,10 @@
       <c r="G47" t="s">
         <v>41</v>
       </c>
-      <c r="J47" s="5"/>
-    </row>
-    <row r="48" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>37</v>
       </c>
       <c r="B48">
@@ -1403,13 +1395,13 @@
       <c r="G48" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J48" s="5"/>
-    </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>27</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="5">
         <v>4.9433085501858744E-2</v>
       </c>
       <c r="C49" t="s">
@@ -1427,13 +1419,13 @@
       <c r="G49" t="s">
         <v>29</v>
       </c>
-      <c r="J49" s="5"/>
-    </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="4">
         <f>0.000167843866171004/1000</f>
         <v>1.6784386617100398E-7</v>
       </c>
@@ -1452,13 +1444,13 @@
       <c r="G50" t="s">
         <v>45</v>
       </c>
-      <c r="J50" s="5"/>
-    </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>30</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="6">
         <v>1.0529739776951673E-2</v>
       </c>
       <c r="C51" t="s">
@@ -1476,13 +1468,13 @@
       <c r="G51" t="s">
         <v>31</v>
       </c>
-      <c r="J51" s="5"/>
-    </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="7" t="s">
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="5">
         <v>4.1394052044609669E-3</v>
       </c>
       <c r="C52" t="s">
@@ -1500,13 +1492,13 @@
       <c r="G52" t="s">
         <v>47</v>
       </c>
-      <c r="J52" s="5"/>
-    </row>
-    <row r="53" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="5">
         <v>0.26319702602230483</v>
       </c>
       <c r="C53" t="s">
@@ -1524,13 +1516,13 @@
       <c r="G53" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J53" s="5"/>
-    </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="7" t="s">
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>48</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="5">
         <v>0.30055762081784387</v>
       </c>
       <c r="C54" t="s">
@@ -1548,10 +1540,9 @@
       <c r="G54" t="s">
         <v>49</v>
       </c>
-      <c r="J54" s="5"/>
-    </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J54" s="4"/>
+    </row>
+    <row r="56" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
@@ -1559,7 +1550,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -1567,7 +1558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -1575,7 +1566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -1583,7 +1574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -1591,7 +1582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -1599,7 +1590,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -1607,12 +1598,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -1635,8 +1626,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="7" t="s">
+    <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>51</v>
       </c>
       <c r="B65">
@@ -1658,11 +1649,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="7" t="s">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>27</v>
       </c>
-      <c r="B66" s="8">
+      <c r="B66" s="6">
         <v>2.1686746987951804E-2</v>
       </c>
       <c r="C66" t="s">
@@ -1681,11 +1672,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="7" t="s">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>44</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B67" s="4">
         <f>0.124279396065274/1000</f>
         <v>1.2427939606527398E-4</v>
       </c>
@@ -1705,11 +1696,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B68" s="8">
+      <c r="B68" s="6">
         <v>1.6409943571755374</v>
       </c>
       <c r="C68" t="s">
@@ -1728,8 +1719,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
@@ -1737,7 +1727,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>2</v>
       </c>
@@ -1745,7 +1735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -1753,7 +1743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -1761,7 +1751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -1769,7 +1759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -1777,7 +1767,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -1785,12 +1775,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>14</v>
       </c>
@@ -1813,7 +1803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>53</v>
       </c>
@@ -1836,7 +1826,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>51</v>
       </c>
@@ -1859,11 +1849,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="7" t="s">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>39</v>
       </c>
-      <c r="B81" s="5">
+      <c r="B81" s="4">
         <v>7.2116921671614527E-3</v>
       </c>
       <c r="C81" t="s">
@@ -1882,11 +1872,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="7" t="s">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>27</v>
       </c>
-      <c r="B82" s="8">
+      <c r="B82" s="6">
         <v>0.41950216944507884</v>
       </c>
       <c r="C82" t="s">
@@ -1905,11 +1895,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="7" t="s">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>48</v>
       </c>
-      <c r="B83" s="6">
+      <c r="B83" s="5">
         <v>0.66453528202786039</v>
       </c>
       <c r="C83" t="s">
@@ -1928,11 +1918,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="7" t="s">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>34</v>
       </c>
-      <c r="B84" s="5">
+      <c r="B84" s="4">
         <v>3.9963461977620464E-4</v>
       </c>
       <c r="C84" t="s">
@@ -1951,8 +1941,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="86" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>0</v>
       </c>
@@ -1960,7 +1949,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>2</v>
       </c>
@@ -1968,7 +1957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -1976,7 +1965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -1984,7 +1973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -1992,7 +1981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -2000,7 +1989,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -2008,12 +1997,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>14</v>
       </c>
@@ -2036,169 +2025,168 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="7" t="s">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>55</v>
       </c>
-      <c r="B95" s="7">
+      <c r="B95">
         <v>1</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C95" t="s">
         <v>110</v>
       </c>
-      <c r="D95" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F95" s="7" t="s">
+      <c r="D95" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95" t="s">
         <v>18</v>
       </c>
-      <c r="G95" s="7" t="s">
+      <c r="G95" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="7" t="s">
+      <c r="A96" t="s">
         <v>57</v>
       </c>
-      <c r="B96" s="7">
+      <c r="B96">
         <v>-0.70140280561122248</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C96" t="s">
         <v>58</v>
       </c>
-      <c r="D96" s="7" t="s">
+      <c r="D96" t="s">
         <v>59</v>
       </c>
-      <c r="E96" s="7" t="s">
+      <c r="E96" t="s">
         <v>40</v>
       </c>
-      <c r="F96" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G96" s="7" t="s">
+      <c r="F96" t="s">
+        <v>22</v>
+      </c>
+      <c r="G96" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="7" t="s">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>39</v>
       </c>
-      <c r="B97" s="9">
+      <c r="B97" s="4">
         <v>1.5626809173903365E-4</v>
       </c>
-      <c r="C97" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E97" s="7" t="s">
+      <c r="C97" t="s">
+        <v>20</v>
+      </c>
+      <c r="D97" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" t="s">
         <v>40</v>
       </c>
-      <c r="F97" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G97" s="7" t="s">
+      <c r="F97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G97" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="7" t="s">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>27</v>
       </c>
-      <c r="B98" s="10">
+      <c r="B98" s="6">
         <v>3.582720997550657E-2</v>
       </c>
-      <c r="C98" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E98" s="7" t="s">
+      <c r="C98" t="s">
+        <v>20</v>
+      </c>
+      <c r="D98" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" t="s">
         <v>28</v>
       </c>
-      <c r="F98" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G98" s="7" t="s">
+      <c r="F98" t="s">
+        <v>22</v>
+      </c>
+      <c r="G98" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="7" t="s">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>53</v>
       </c>
-      <c r="B99" s="7">
+      <c r="B99">
         <v>0.97506123357826757</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C99" t="s">
         <v>110</v>
       </c>
-      <c r="D99" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G99" s="7" t="s">
+      <c r="D99" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G99" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="7" t="s">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>61</v>
       </c>
-      <c r="B100" s="9">
+      <c r="B100" s="4">
         <v>2.5005566688933424E-2</v>
       </c>
-      <c r="C100" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D100" s="7" t="s">
+      <c r="C100" t="s">
+        <v>20</v>
+      </c>
+      <c r="D100" t="s">
         <v>25</v>
       </c>
-      <c r="E100" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G100" s="7" t="s">
+      <c r="E100" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" t="s">
+        <v>22</v>
+      </c>
+      <c r="G100" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="7" t="s">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>34</v>
       </c>
-      <c r="B101" s="9">
+      <c r="B101" s="4">
         <v>0.14600311734580271</v>
       </c>
-      <c r="C101" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D101" s="7" t="s">
+      <c r="C101" t="s">
+        <v>20</v>
+      </c>
+      <c r="D101" t="s">
         <v>35</v>
       </c>
-      <c r="E101" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G101" s="7" t="s">
+      <c r="E101" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" t="s">
+        <v>22</v>
+      </c>
+      <c r="G101" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="103" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>0</v>
       </c>
@@ -2206,7 +2194,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>2</v>
       </c>
@@ -2214,7 +2202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>4</v>
       </c>
@@ -2222,7 +2210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>6</v>
       </c>
@@ -2230,7 +2218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>8</v>
       </c>
@@ -2238,7 +2226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>9</v>
       </c>
@@ -2246,7 +2234,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>11</v>
       </c>
@@ -2254,12 +2242,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>14</v>
       </c>
@@ -2285,31 +2273,31 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="7" t="s">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
         <v>63</v>
       </c>
-      <c r="B112" s="7">
+      <c r="B112">
         <v>1</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="C112" t="s">
         <v>110</v>
       </c>
-      <c r="D112" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F112" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G112" s="7" t="s">
+      <c r="D112" t="s">
+        <v>7</v>
+      </c>
+      <c r="F112" t="s">
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
         <v>18</v>
       </c>
-      <c r="H112" s="7" t="s">
+      <c r="H112" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="7" t="s">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
         <v>66</v>
       </c>
       <c r="B113">
@@ -2322,87 +2310,87 @@
       <c r="E113" t="s">
         <v>68</v>
       </c>
-      <c r="F113" s="7" t="s">
+      <c r="F113" t="s">
         <v>40</v>
       </c>
       <c r="G113" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="7" t="s">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
         <v>39</v>
       </c>
-      <c r="B114" s="9">
+      <c r="B114" s="4">
         <v>5.2692446693169504E-4</v>
       </c>
-      <c r="C114" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D114" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F114" s="7" t="s">
+      <c r="C114" t="s">
+        <v>20</v>
+      </c>
+      <c r="D114" t="s">
+        <v>7</v>
+      </c>
+      <c r="F114" t="s">
         <v>40</v>
       </c>
-      <c r="G114" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H114" s="7" t="s">
+      <c r="G114" t="s">
+        <v>22</v>
+      </c>
+      <c r="H114" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="7" t="s">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
         <v>27</v>
       </c>
-      <c r="B115" s="10">
+      <c r="B115" s="6">
         <v>6.3642934586194438E-2</v>
       </c>
-      <c r="C115" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F115" s="7" t="s">
+      <c r="C115" t="s">
+        <v>20</v>
+      </c>
+      <c r="D115" t="s">
+        <v>7</v>
+      </c>
+      <c r="F115" t="s">
         <v>28</v>
       </c>
-      <c r="G115" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H115" s="7" t="s">
+      <c r="G115" t="s">
+        <v>22</v>
+      </c>
+      <c r="H115" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>55</v>
       </c>
       <c r="B116">
         <v>1.6230574629562702</v>
       </c>
-      <c r="C116" s="7" t="s">
+      <c r="C116" t="s">
         <v>110</v>
       </c>
-      <c r="D116" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F116" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G116" s="7" t="s">
+      <c r="D116" t="s">
+        <v>7</v>
+      </c>
+      <c r="F116" t="s">
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
         <v>22</v>
       </c>
       <c r="H116" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="7" t="s">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
         <v>48</v>
       </c>
-      <c r="B117" s="6">
+      <c r="B117" s="5">
         <v>0.74412721358872436</v>
       </c>
       <c r="C117" t="s">
@@ -2421,8 +2409,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="119" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>0</v>
       </c>
@@ -2430,7 +2417,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>2</v>
       </c>
@@ -2438,7 +2425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>4</v>
       </c>
@@ -2446,7 +2433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>6</v>
       </c>
@@ -2454,7 +2441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>8</v>
       </c>
@@ -2462,7 +2449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>9</v>
       </c>
@@ -2470,7 +2457,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>11</v>
       </c>
@@ -2478,12 +2465,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>14</v>
       </c>
@@ -2509,82 +2496,82 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="7" t="s">
+    <row r="128" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
         <v>70</v>
       </c>
-      <c r="B128" s="7">
+      <c r="B128">
         <v>1</v>
       </c>
-      <c r="C128" s="7" t="s">
+      <c r="C128" t="s">
         <v>110</v>
       </c>
-      <c r="D128" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F128" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G128" s="7" t="s">
+      <c r="D128" t="s">
+        <v>7</v>
+      </c>
+      <c r="F128" t="s">
+        <v>12</v>
+      </c>
+      <c r="G128" t="s">
         <v>18</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="7" t="s">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
         <v>39</v>
       </c>
-      <c r="B129" s="9">
+      <c r="B129" s="4">
         <v>0.23154848046309698</v>
       </c>
-      <c r="C129" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D129" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F129" s="7" t="s">
+      <c r="C129" t="s">
+        <v>20</v>
+      </c>
+      <c r="D129" t="s">
+        <v>7</v>
+      </c>
+      <c r="F129" t="s">
         <v>40</v>
       </c>
-      <c r="G129" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H129" s="7" t="s">
+      <c r="G129" t="s">
+        <v>22</v>
+      </c>
+      <c r="H129" t="s">
         <v>41</v>
       </c>
-      <c r="K129" s="5"/>
-    </row>
-    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="7" t="s">
+      <c r="K129" s="4"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
         <v>27</v>
       </c>
-      <c r="B130" s="10">
+      <c r="B130" s="6">
         <v>0.12702604920405211</v>
       </c>
-      <c r="C130" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D130" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F130" s="7" t="s">
+      <c r="C130" t="s">
+        <v>20</v>
+      </c>
+      <c r="D130" t="s">
+        <v>7</v>
+      </c>
+      <c r="F130" t="s">
         <v>28</v>
       </c>
-      <c r="G130" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H130" s="7" t="s">
+      <c r="G130" t="s">
+        <v>22</v>
+      </c>
+      <c r="H130" t="s">
         <v>29</v>
       </c>
-      <c r="K130" s="5"/>
-    </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="7" t="s">
+      <c r="K130" s="4"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
         <v>44</v>
       </c>
-      <c r="B131" s="5">
+      <c r="B131" s="4">
         <v>2.7941389290882783E-5</v>
       </c>
       <c r="C131" t="s">
@@ -2602,9 +2589,9 @@
       <c r="H131" t="s">
         <v>45</v>
       </c>
-      <c r="K131" s="5"/>
-    </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K131" s="4"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>63</v>
       </c>
@@ -2626,13 +2613,13 @@
       <c r="H132" t="s">
         <v>64</v>
       </c>
-      <c r="K132" s="5"/>
-    </row>
-    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="7" t="s">
+      <c r="K132" s="4"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
         <v>48</v>
       </c>
-      <c r="B133" s="6">
+      <c r="B133" s="5">
         <v>0.33046309696092624</v>
       </c>
       <c r="C133" t="s">
@@ -2650,10 +2637,9 @@
       <c r="H133" t="s">
         <v>49</v>
       </c>
-      <c r="K133" s="5"/>
-    </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="135" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K133" s="4"/>
+    </row>
+    <row r="135" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>0</v>
       </c>
@@ -2661,7 +2647,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>2</v>
       </c>
@@ -2669,7 +2655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>4</v>
       </c>
@@ -2677,7 +2663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>6</v>
       </c>
@@ -2685,7 +2671,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -2693,7 +2679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>9</v>
       </c>
@@ -2701,7 +2687,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -2709,12 +2695,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>14</v>
       </c>
@@ -2740,57 +2726,57 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="7" t="s">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
         <v>72</v>
       </c>
-      <c r="B144" s="7">
+      <c r="B144">
         <v>1</v>
       </c>
-      <c r="C144" s="7" t="s">
+      <c r="C144" t="s">
         <v>110</v>
       </c>
-      <c r="D144" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F144" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G144" s="7" t="s">
+      <c r="D144" t="s">
+        <v>7</v>
+      </c>
+      <c r="F144" t="s">
+        <v>12</v>
+      </c>
+      <c r="G144" t="s">
         <v>18</v>
       </c>
-      <c r="H144" s="7" t="s">
+      <c r="H144" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="7" t="s">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
         <v>27</v>
       </c>
-      <c r="B145" s="10">
+      <c r="B145" s="6">
         <v>2.5810859403092409E-2</v>
       </c>
-      <c r="C145" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D145" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F145" s="7" t="s">
+      <c r="C145" t="s">
+        <v>20</v>
+      </c>
+      <c r="D145" t="s">
+        <v>7</v>
+      </c>
+      <c r="F145" t="s">
         <v>28</v>
       </c>
-      <c r="G145" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H145" s="7" t="s">
+      <c r="G145" t="s">
+        <v>22</v>
+      </c>
+      <c r="H145" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="7" t="s">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
         <v>44</v>
       </c>
-      <c r="B146" s="5">
+      <c r="B146" s="4">
         <v>2.2218626393383675E-5</v>
       </c>
       <c r="C146" t="s">
@@ -2809,17 +2795,17 @@
         <v>45</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="7" t="s">
+    <row r="147" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
         <v>70</v>
       </c>
-      <c r="B147" s="7">
+      <c r="B147">
         <v>0.99496583962603369</v>
       </c>
-      <c r="C147" s="7" t="s">
+      <c r="C147" t="s">
         <v>110</v>
       </c>
-      <c r="D147" s="7" t="s">
+      <c r="D147" t="s">
         <v>7</v>
       </c>
       <c r="F147" t="s">
@@ -2832,8 +2818,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="7" t="s">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
         <v>74</v>
       </c>
       <c r="B148">
@@ -2842,7 +2828,7 @@
       <c r="C148" t="s">
         <v>20</v>
       </c>
-      <c r="D148" s="7" t="s">
+      <c r="D148" t="s">
         <v>7</v>
       </c>
       <c r="F148" t="s">
@@ -2855,8 +2841,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="150" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>0</v>
       </c>
@@ -2864,7 +2849,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>2</v>
       </c>
@@ -2872,7 +2857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>4</v>
       </c>
@@ -2880,7 +2865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>6</v>
       </c>
@@ -2888,7 +2873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>8</v>
       </c>
@@ -2896,7 +2881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>9</v>
       </c>
@@ -2904,7 +2889,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>11</v>
       </c>
@@ -2912,12 +2897,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>14</v>
       </c>
@@ -2943,103 +2928,102 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="7" t="s">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
         <v>76</v>
       </c>
-      <c r="B159" s="7">
+      <c r="B159">
         <v>1</v>
       </c>
-      <c r="C159" s="7" t="s">
+      <c r="C159" t="s">
         <v>110</v>
       </c>
-      <c r="D159" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F159" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G159" s="7" t="s">
+      <c r="D159" t="s">
+        <v>7</v>
+      </c>
+      <c r="F159" t="s">
+        <v>12</v>
+      </c>
+      <c r="G159" t="s">
         <v>18</v>
       </c>
-      <c r="H159" s="7" t="s">
+      <c r="H159" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="7" t="s">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
         <v>39</v>
       </c>
-      <c r="B160" s="9">
+      <c r="B160" s="4">
         <v>0.15260697590794678</v>
       </c>
-      <c r="C160" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D160" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F160" s="7" t="s">
+      <c r="C160" t="s">
+        <v>20</v>
+      </c>
+      <c r="D160" t="s">
+        <v>7</v>
+      </c>
+      <c r="F160" t="s">
         <v>40</v>
       </c>
-      <c r="G160" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H160" s="7" t="s">
+      <c r="G160" t="s">
+        <v>22</v>
+      </c>
+      <c r="H160" t="s">
         <v>41</v>
       </c>
-      <c r="K160" s="5"/>
-    </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="7" t="s">
+      <c r="K160" s="4"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
         <v>27</v>
       </c>
-      <c r="B161" s="10">
+      <c r="B161" s="6">
         <v>0.11183027687882056</v>
       </c>
-      <c r="C161" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D161" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F161" s="7" t="s">
+      <c r="C161" t="s">
+        <v>20</v>
+      </c>
+      <c r="D161" t="s">
+        <v>7</v>
+      </c>
+      <c r="F161" t="s">
         <v>28</v>
       </c>
-      <c r="G161" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H161" s="7" t="s">
+      <c r="G161" t="s">
+        <v>22</v>
+      </c>
+      <c r="H161" t="s">
         <v>29</v>
       </c>
-      <c r="K161" s="5"/>
-    </row>
-    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="7" t="s">
+      <c r="K161" s="4"/>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
         <v>72</v>
       </c>
-      <c r="B162" s="7">
+      <c r="B162">
         <v>1</v>
       </c>
-      <c r="C162" s="7" t="s">
+      <c r="C162" t="s">
         <v>110</v>
       </c>
-      <c r="D162" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F162" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G162" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H162" s="7" t="s">
+      <c r="D162" t="s">
+        <v>7</v>
+      </c>
+      <c r="F162" t="s">
+        <v>12</v>
+      </c>
+      <c r="G162" t="s">
+        <v>22</v>
+      </c>
+      <c r="H162" t="s">
         <v>73</v>
       </c>
-      <c r="K162" s="5"/>
-    </row>
-    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="164" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="K162" s="4"/>
+    </row>
+    <row r="164" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>0</v>
       </c>
@@ -3047,7 +3031,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>2</v>
       </c>
@@ -3055,7 +3039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>4</v>
       </c>
@@ -3063,7 +3047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>6</v>
       </c>
@@ -3071,7 +3055,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>8</v>
       </c>
@@ -3079,7 +3063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>9</v>
       </c>
@@ -3087,7 +3071,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>11</v>
       </c>
@@ -3095,12 +3079,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>14</v>
       </c>
@@ -3126,132 +3110,126 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="7" t="s">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
         <v>77</v>
       </c>
-      <c r="B173" s="7">
+      <c r="B173">
         <v>1</v>
       </c>
-      <c r="C173" s="7" t="s">
+      <c r="C173" t="s">
         <v>110</v>
       </c>
-      <c r="D173" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E173" s="7"/>
-      <c r="F173" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G173" s="7" t="s">
+      <c r="D173" t="s">
+        <v>7</v>
+      </c>
+      <c r="F173" t="s">
+        <v>12</v>
+      </c>
+      <c r="G173" t="s">
         <v>18</v>
       </c>
-      <c r="H173" s="7" t="s">
+      <c r="H173" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="7" t="s">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
         <v>39</v>
       </c>
-      <c r="B174" s="9">
+      <c r="B174" s="4">
         <v>3.5971223021582739E-2</v>
       </c>
-      <c r="C174" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D174" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E174" s="7"/>
-      <c r="F174" s="7" t="s">
+      <c r="C174" t="s">
+        <v>20</v>
+      </c>
+      <c r="D174" t="s">
+        <v>7</v>
+      </c>
+      <c r="F174" t="s">
         <v>40</v>
       </c>
-      <c r="G174" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H174" s="7" t="s">
+      <c r="G174" t="s">
+        <v>22</v>
+      </c>
+      <c r="H174" t="s">
         <v>41</v>
       </c>
-      <c r="J174" s="5"/>
-    </row>
-    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="7" t="s">
+      <c r="J174" s="4"/>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
         <v>27</v>
       </c>
-      <c r="B175" s="10">
+      <c r="B175" s="6">
         <v>4.6762589928057562E-2</v>
       </c>
-      <c r="C175" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D175" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E175" s="7"/>
-      <c r="F175" s="7" t="s">
+      <c r="C175" t="s">
+        <v>20</v>
+      </c>
+      <c r="D175" t="s">
+        <v>7</v>
+      </c>
+      <c r="F175" t="s">
         <v>28</v>
       </c>
-      <c r="G175" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H175" s="7" t="s">
+      <c r="G175" t="s">
+        <v>22</v>
+      </c>
+      <c r="H175" t="s">
         <v>29</v>
       </c>
-      <c r="J175" s="5"/>
-    </row>
-    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="7" t="s">
+      <c r="J175" s="4"/>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
         <v>76</v>
       </c>
-      <c r="B176" s="7">
+      <c r="B176">
         <v>1</v>
       </c>
-      <c r="C176" s="7" t="s">
+      <c r="C176" t="s">
         <v>110</v>
       </c>
-      <c r="D176" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E176" s="7"/>
-      <c r="F176" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G176" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H176" s="7" t="s">
+      <c r="D176" t="s">
+        <v>7</v>
+      </c>
+      <c r="F176" t="s">
+        <v>12</v>
+      </c>
+      <c r="G176" t="s">
+        <v>22</v>
+      </c>
+      <c r="H176" t="s">
         <v>76</v>
       </c>
-      <c r="J176" s="5"/>
-    </row>
-    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="7" t="s">
+      <c r="J176" s="4"/>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
         <v>34</v>
       </c>
-      <c r="B177" s="9">
+      <c r="B177" s="4">
         <v>0.10241007194244606</v>
       </c>
-      <c r="C177" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D177" s="7" t="s">
+      <c r="C177" t="s">
+        <v>20</v>
+      </c>
+      <c r="D177" t="s">
         <v>35</v>
       </c>
-      <c r="E177" s="7"/>
-      <c r="F177" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G177" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H177" s="7" t="s">
+      <c r="F177" t="s">
+        <v>12</v>
+      </c>
+      <c r="G177" t="s">
+        <v>22</v>
+      </c>
+      <c r="H177" t="s">
         <v>36</v>
       </c>
-      <c r="J177" s="5"/>
-    </row>
-    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="179" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J177" s="4"/>
+    </row>
+    <row r="179" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>0</v>
       </c>
@@ -3259,7 +3237,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>2</v>
       </c>
@@ -3267,7 +3245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>4</v>
       </c>
@@ -3275,7 +3253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>6</v>
       </c>
@@ -3283,7 +3261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>8</v>
       </c>
@@ -3291,7 +3269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>9</v>
       </c>
@@ -3299,7 +3277,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>11</v>
       </c>
@@ -3307,12 +3285,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>14</v>
       </c>
@@ -3339,136 +3317,133 @@
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A188" s="7" t="s">
+      <c r="A188" t="s">
         <v>78</v>
       </c>
-      <c r="B188" s="7">
+      <c r="B188">
         <v>1</v>
       </c>
-      <c r="C188" s="7" t="s">
+      <c r="C188" t="s">
         <v>110</v>
       </c>
-      <c r="D188" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E188" s="7"/>
-      <c r="F188" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G188" s="7" t="s">
+      <c r="D188" t="s">
+        <v>7</v>
+      </c>
+      <c r="F188" t="s">
+        <v>12</v>
+      </c>
+      <c r="G188" t="s">
         <v>18</v>
       </c>
-      <c r="H188" s="7" t="s">
+      <c r="H188" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="7" t="s">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
         <v>27</v>
       </c>
-      <c r="B189" s="10">
+      <c r="B189" s="6">
         <v>2.2910670648927507E-2</v>
       </c>
-      <c r="C189" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D189" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E189" s="7"/>
-      <c r="F189" s="7" t="s">
+      <c r="C189" t="s">
+        <v>20</v>
+      </c>
+      <c r="D189" t="s">
+        <v>7</v>
+      </c>
+      <c r="F189" t="s">
         <v>28</v>
       </c>
-      <c r="G189" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H189" s="7" t="s">
+      <c r="G189" t="s">
+        <v>22</v>
+      </c>
+      <c r="H189" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="7" t="s">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
         <v>79</v>
       </c>
       <c r="B190">
         <v>1.2598425196850395E-2</v>
       </c>
-      <c r="C190" s="7" t="s">
+      <c r="C190" t="s">
         <v>67</v>
       </c>
       <c r="E190" t="s">
         <v>68</v>
       </c>
-      <c r="F190" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G190" s="7" t="s">
+      <c r="F190" t="s">
+        <v>12</v>
+      </c>
+      <c r="G190" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="7" t="s">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
         <v>80</v>
       </c>
       <c r="B191">
         <v>1.629106706489275E-3</v>
       </c>
-      <c r="C191" s="7" t="s">
+      <c r="C191" t="s">
         <v>67</v>
       </c>
       <c r="E191" t="s">
         <v>68</v>
       </c>
-      <c r="F191" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G191" s="7" t="s">
+      <c r="F191" t="s">
+        <v>12</v>
+      </c>
+      <c r="G191" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="7" t="s">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
         <v>81</v>
       </c>
       <c r="B192">
         <v>7.4287265815910948E-3</v>
       </c>
-      <c r="C192" s="7" t="s">
+      <c r="C192" t="s">
         <v>67</v>
       </c>
       <c r="E192" t="s">
         <v>68</v>
       </c>
-      <c r="F192" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G192" s="7" t="s">
+      <c r="F192" t="s">
+        <v>12</v>
+      </c>
+      <c r="G192" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="7" t="s">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
         <v>66</v>
       </c>
       <c r="B193">
         <f>0.207439587292968/1000</f>
         <v>2.0743958729296799E-4</v>
       </c>
-      <c r="C193" s="7" t="s">
+      <c r="C193" t="s">
         <v>67</v>
       </c>
       <c r="E193" t="s">
         <v>68</v>
       </c>
-      <c r="F193" s="7" t="s">
+      <c r="F193" t="s">
         <v>40</v>
       </c>
-      <c r="G193" s="7" t="s">
+      <c r="G193" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="195" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>0</v>
       </c>
@@ -3476,7 +3451,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>2</v>
       </c>
@@ -3484,7 +3459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>4</v>
       </c>
@@ -3492,7 +3467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>6</v>
       </c>
@@ -3500,7 +3475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>8</v>
       </c>
@@ -3508,7 +3483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>9</v>
       </c>
@@ -3516,7 +3491,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>11</v>
       </c>
@@ -3524,12 +3499,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>14</v>
       </c>
@@ -3556,54 +3531,52 @@
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A204" s="7" t="s">
+      <c r="A204" t="s">
         <v>82</v>
       </c>
-      <c r="B204" s="7">
+      <c r="B204">
         <v>1</v>
       </c>
-      <c r="C204" s="7" t="s">
+      <c r="C204" t="s">
         <v>110</v>
       </c>
-      <c r="D204" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E204" s="7"/>
-      <c r="F204" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G204" s="7" t="s">
+      <c r="D204" t="s">
+        <v>7</v>
+      </c>
+      <c r="F204" t="s">
+        <v>12</v>
+      </c>
+      <c r="G204" t="s">
         <v>18</v>
       </c>
-      <c r="H204" s="7" t="s">
+      <c r="H204" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="7" t="s">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
         <v>27</v>
       </c>
-      <c r="B205" s="10">
+      <c r="B205" s="6">
         <v>2.6205936920222633E-2</v>
       </c>
-      <c r="C205" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D205" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E205" s="7"/>
-      <c r="F205" s="7" t="s">
+      <c r="C205" t="s">
+        <v>20</v>
+      </c>
+      <c r="D205" t="s">
+        <v>7</v>
+      </c>
+      <c r="F205" t="s">
         <v>28</v>
       </c>
-      <c r="G205" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H205" s="7" t="s">
+      <c r="G205" t="s">
+        <v>22</v>
+      </c>
+      <c r="H205" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>83</v>
       </c>
@@ -3616,146 +3589,144 @@
       <c r="D206" t="s">
         <v>25</v>
       </c>
-      <c r="F206" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G206" s="7" t="s">
+      <c r="F206" t="s">
+        <v>12</v>
+      </c>
+      <c r="G206" t="s">
         <v>22</v>
       </c>
       <c r="H206" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="7" t="s">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
         <v>80</v>
       </c>
       <c r="B207">
         <v>0.70204081632653059</v>
       </c>
-      <c r="C207" s="7" t="s">
+      <c r="C207" t="s">
         <v>67</v>
       </c>
       <c r="E207" t="s">
         <v>68</v>
       </c>
-      <c r="F207" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G207" s="7" t="s">
+      <c r="F207" t="s">
+        <v>12</v>
+      </c>
+      <c r="G207" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="7" t="s">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
         <v>81</v>
       </c>
       <c r="B208">
         <v>3.4406307977736557</v>
       </c>
-      <c r="C208" s="7" t="s">
+      <c r="C208" t="s">
         <v>67</v>
       </c>
       <c r="E208" t="s">
         <v>68</v>
       </c>
-      <c r="F208" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G208" s="7" t="s">
+      <c r="F208" t="s">
+        <v>12</v>
+      </c>
+      <c r="G208" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="7" t="s">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
         <v>85</v>
       </c>
       <c r="B209">
         <v>9.9907235621521338E-3</v>
       </c>
-      <c r="C209" s="7" t="s">
+      <c r="C209" t="s">
         <v>67</v>
       </c>
       <c r="E209" t="s">
         <v>68</v>
       </c>
-      <c r="F209" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G209" s="7" t="s">
+      <c r="F209" t="s">
+        <v>12</v>
+      </c>
+      <c r="G209" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="7" t="s">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
         <v>66</v>
       </c>
       <c r="B210">
         <f>0.474025974025974/1000</f>
         <v>4.7402597402597401E-4</v>
       </c>
-      <c r="C210" s="7" t="s">
+      <c r="C210" t="s">
         <v>67</v>
       </c>
       <c r="E210" t="s">
         <v>68</v>
       </c>
-      <c r="F210" s="7" t="s">
+      <c r="F210" t="s">
         <v>40</v>
       </c>
-      <c r="G210" s="7" t="s">
+      <c r="G210" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="7" t="s">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
         <v>86</v>
       </c>
       <c r="B211">
         <v>0.98979591836734704</v>
       </c>
-      <c r="C211" s="7" t="s">
+      <c r="C211" t="s">
         <v>20</v>
       </c>
       <c r="D211" t="s">
         <v>25</v>
       </c>
-      <c r="F211" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G211" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H211" s="7" t="s">
+      <c r="F211" t="s">
+        <v>12</v>
+      </c>
+      <c r="G211" t="s">
+        <v>22</v>
+      </c>
+      <c r="H211" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="7" t="s">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
         <v>39</v>
       </c>
-      <c r="B212" s="9">
+      <c r="B212" s="4">
         <v>9.27643784786642E-2</v>
       </c>
-      <c r="C212" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D212" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E212" s="7"/>
-      <c r="F212" s="7" t="s">
+      <c r="C212" t="s">
+        <v>20</v>
+      </c>
+      <c r="D212" t="s">
+        <v>7</v>
+      </c>
+      <c r="F212" t="s">
         <v>40</v>
       </c>
-      <c r="G212" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H212" s="7" t="s">
+      <c r="G212" t="s">
+        <v>22</v>
+      </c>
+      <c r="H212" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="214" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>0</v>
       </c>
@@ -3763,7 +3734,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>2</v>
       </c>
@@ -3771,7 +3742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>4</v>
       </c>
@@ -3779,7 +3750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>6</v>
       </c>
@@ -3787,7 +3758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>8</v>
       </c>
@@ -3795,7 +3766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>9</v>
       </c>
@@ -3803,7 +3774,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>11</v>
       </c>
@@ -3811,12 +3782,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="221" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>14</v>
       </c>
@@ -3842,81 +3813,78 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="7" t="s">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
         <v>88</v>
       </c>
-      <c r="B223" s="7">
+      <c r="B223">
         <v>1</v>
       </c>
-      <c r="C223" s="7" t="s">
+      <c r="C223" t="s">
         <v>110</v>
       </c>
-      <c r="D223" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E223" s="7"/>
-      <c r="F223" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G223" s="7" t="s">
+      <c r="D223" t="s">
+        <v>7</v>
+      </c>
+      <c r="F223" t="s">
+        <v>12</v>
+      </c>
+      <c r="G223" t="s">
         <v>18</v>
       </c>
-      <c r="H223" s="7" t="s">
+      <c r="H223" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="7" t="s">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
         <v>39</v>
       </c>
-      <c r="B224" s="9">
+      <c r="B224" s="4">
         <v>7.6268477826608061E-2</v>
       </c>
-      <c r="C224" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D224" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E224" s="7"/>
-      <c r="F224" s="7" t="s">
+      <c r="C224" t="s">
+        <v>20</v>
+      </c>
+      <c r="D224" t="s">
+        <v>7</v>
+      </c>
+      <c r="F224" t="s">
         <v>40</v>
       </c>
-      <c r="G224" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H224" s="7" t="s">
+      <c r="G224" t="s">
+        <v>22</v>
+      </c>
+      <c r="H224" t="s">
         <v>41</v>
       </c>
-      <c r="L224" s="5"/>
-    </row>
-    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="7" t="s">
+      <c r="L224" s="4"/>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
         <v>27</v>
       </c>
-      <c r="B225" s="10">
+      <c r="B225" s="6">
         <v>7.5189772273272073</v>
       </c>
-      <c r="C225" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D225" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E225" s="7"/>
-      <c r="F225" s="7" t="s">
+      <c r="C225" t="s">
+        <v>20</v>
+      </c>
+      <c r="D225" t="s">
+        <v>7</v>
+      </c>
+      <c r="F225" t="s">
         <v>28</v>
       </c>
-      <c r="G225" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H225" s="7" t="s">
+      <c r="G225" t="s">
+        <v>22</v>
+      </c>
+      <c r="H225" t="s">
         <v>29</v>
       </c>
-      <c r="L225" s="5"/>
-    </row>
-    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L225" s="4"/>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>83</v>
       </c>
@@ -3929,69 +3897,66 @@
       <c r="D226" t="s">
         <v>25</v>
       </c>
-      <c r="F226" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G226" s="7" t="s">
+      <c r="F226" t="s">
+        <v>12</v>
+      </c>
+      <c r="G226" t="s">
         <v>22</v>
       </c>
       <c r="H226" t="s">
         <v>84</v>
       </c>
-      <c r="L226" s="5"/>
-    </row>
-    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="7" t="s">
+      <c r="L226" s="4"/>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
         <v>77</v>
       </c>
-      <c r="B227" s="7">
+      <c r="B227">
         <v>1.1106671993607669</v>
       </c>
-      <c r="C227" s="7" t="s">
+      <c r="C227" t="s">
         <v>110</v>
       </c>
-      <c r="D227" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E227" s="7"/>
-      <c r="F227" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G227" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H227" s="7" t="s">
+      <c r="D227" t="s">
+        <v>7</v>
+      </c>
+      <c r="F227" t="s">
+        <v>12</v>
+      </c>
+      <c r="G227" t="s">
+        <v>22</v>
+      </c>
+      <c r="H227" t="s">
         <v>77</v>
       </c>
-      <c r="L227" s="5"/>
+      <c r="L227" s="4"/>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A228" s="7" t="s">
+      <c r="A228" t="s">
         <v>78</v>
       </c>
-      <c r="B228" s="7">
+      <c r="B228">
         <v>14.710347582900519</v>
       </c>
-      <c r="C228" s="7" t="s">
+      <c r="C228" t="s">
         <v>110</v>
       </c>
-      <c r="D228" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E228" s="7"/>
-      <c r="F228" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G228" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H228" s="7" t="s">
+      <c r="D228" t="s">
+        <v>7</v>
+      </c>
+      <c r="F228" t="s">
+        <v>12</v>
+      </c>
+      <c r="G228" t="s">
+        <v>22</v>
+      </c>
+      <c r="H228" t="s">
         <v>78</v>
       </c>
-      <c r="L228" s="5"/>
-    </row>
-    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="230" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="L228" s="4"/>
+    </row>
+    <row r="230" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>0</v>
       </c>
@@ -3999,7 +3964,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>2</v>
       </c>
@@ -4007,7 +3972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>4</v>
       </c>
@@ -4015,7 +3980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>6</v>
       </c>
@@ -4023,7 +3988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>8</v>
       </c>
@@ -4031,7 +3996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>9</v>
       </c>
@@ -4039,7 +4004,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>11</v>
       </c>
@@ -4047,12 +4012,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="237" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>14</v>
       </c>
@@ -4078,59 +4043,57 @@
         <v>9</v>
       </c>
     </row>
-    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="7" t="s">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
         <v>90</v>
       </c>
-      <c r="B239" s="7">
+      <c r="B239">
         <v>1</v>
       </c>
-      <c r="C239" s="7" t="s">
+      <c r="C239" t="s">
         <v>110</v>
       </c>
-      <c r="D239" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E239" s="7"/>
-      <c r="F239" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G239" s="7" t="s">
+      <c r="D239" t="s">
+        <v>7</v>
+      </c>
+      <c r="F239" t="s">
+        <v>12</v>
+      </c>
+      <c r="G239" t="s">
         <v>18</v>
       </c>
-      <c r="H239" s="7" t="s">
+      <c r="H239" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="7" t="s">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
         <v>27</v>
       </c>
-      <c r="B240" s="10">
+      <c r="B240" s="6">
         <v>3.3274760383386583</v>
       </c>
-      <c r="C240" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D240" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E240" s="7"/>
-      <c r="F240" s="7" t="s">
+      <c r="C240" t="s">
+        <v>20</v>
+      </c>
+      <c r="D240" t="s">
+        <v>7</v>
+      </c>
+      <c r="F240" t="s">
         <v>28</v>
       </c>
-      <c r="G240" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H240" s="7" t="s">
+      <c r="G240" t="s">
+        <v>22</v>
+      </c>
+      <c r="H240" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="7" t="s">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
         <v>44</v>
       </c>
-      <c r="B241" s="5">
+      <c r="B241" s="4">
         <v>6.2484025559105428E-4</v>
       </c>
       <c r="C241" t="s">
@@ -4149,35 +4112,34 @@
         <v>45</v>
       </c>
     </row>
-    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="7" t="s">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
         <v>88</v>
       </c>
-      <c r="B242" s="7">
+      <c r="B242">
         <v>1.9992012779552717</v>
       </c>
-      <c r="C242" s="7" t="s">
+      <c r="C242" t="s">
         <v>110</v>
       </c>
-      <c r="D242" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E242" s="7"/>
-      <c r="F242" s="7" t="s">
+      <c r="D242" t="s">
+        <v>7</v>
+      </c>
+      <c r="F242" t="s">
         <v>12</v>
       </c>
       <c r="G242" t="s">
         <v>22</v>
       </c>
-      <c r="H242" s="7" t="s">
+      <c r="H242" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>46</v>
       </c>
-      <c r="B243" s="6">
+      <c r="B243" s="5">
         <v>5.2819488817891376</v>
       </c>
       <c r="C243" t="s">
@@ -4196,11 +4158,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>48</v>
       </c>
-      <c r="B244" s="6">
+      <c r="B244" s="5">
         <v>1.4832268370607029</v>
       </c>
       <c r="C244" t="s">
@@ -4220,31 +4182,29 @@
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A245" s="7" t="s">
+      <c r="A245" t="s">
         <v>82</v>
       </c>
-      <c r="B245" s="7">
+      <c r="B245">
         <v>6.2819488817891376</v>
       </c>
-      <c r="C245" s="7" t="s">
+      <c r="C245" t="s">
         <v>110</v>
       </c>
-      <c r="D245" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E245" s="7"/>
+      <c r="D245" t="s">
+        <v>7</v>
+      </c>
       <c r="F245" t="s">
         <v>12</v>
       </c>
       <c r="G245" t="s">
         <v>22</v>
       </c>
-      <c r="H245" s="7" t="s">
+      <c r="H245" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="247" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>0</v>
       </c>
@@ -4252,7 +4212,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>2</v>
       </c>
@@ -4260,7 +4220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>4</v>
       </c>
@@ -4268,7 +4228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>6</v>
       </c>
@@ -4276,7 +4236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>8</v>
       </c>
@@ -4284,7 +4244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>9</v>
       </c>
@@ -4292,7 +4252,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>11</v>
       </c>
@@ -4300,12 +4260,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>14</v>
       </c>
@@ -4331,59 +4291,57 @@
         <v>9</v>
       </c>
     </row>
-    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="7" t="s">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
         <v>92</v>
       </c>
-      <c r="B256" s="7">
+      <c r="B256">
         <v>1</v>
       </c>
-      <c r="C256" s="7" t="s">
+      <c r="C256" t="s">
         <v>110</v>
       </c>
-      <c r="D256" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E256" s="7"/>
-      <c r="F256" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G256" s="7" t="s">
+      <c r="D256" t="s">
+        <v>7</v>
+      </c>
+      <c r="F256" t="s">
+        <v>12</v>
+      </c>
+      <c r="G256" t="s">
         <v>18</v>
       </c>
-      <c r="H256" s="7" t="s">
+      <c r="H256" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="7" t="s">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
         <v>27</v>
       </c>
-      <c r="B257" s="10">
+      <c r="B257" s="6">
         <v>8.0589999999999993</v>
       </c>
-      <c r="C257" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D257" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E257" s="7"/>
-      <c r="F257" s="7" t="s">
+      <c r="C257" t="s">
+        <v>20</v>
+      </c>
+      <c r="D257" t="s">
+        <v>7</v>
+      </c>
+      <c r="F257" t="s">
         <v>28</v>
       </c>
-      <c r="G257" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H257" s="7" t="s">
+      <c r="G257" t="s">
+        <v>22</v>
+      </c>
+      <c r="H257" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="7" t="s">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
         <v>44</v>
       </c>
-      <c r="B258" s="5">
+      <c r="B258" s="4">
         <v>7.5030000000000001E-3</v>
       </c>
       <c r="C258" t="s">
@@ -4402,35 +4360,34 @@
         <v>45</v>
       </c>
     </row>
-    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="7" t="s">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
         <v>90</v>
       </c>
-      <c r="B259" s="7">
+      <c r="B259">
         <v>1.252</v>
       </c>
-      <c r="C259" s="7" t="s">
+      <c r="C259" t="s">
         <v>110</v>
       </c>
-      <c r="D259" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E259" s="7"/>
-      <c r="F259" s="7" t="s">
+      <c r="D259" t="s">
+        <v>7</v>
+      </c>
+      <c r="F259" t="s">
         <v>12</v>
       </c>
       <c r="G259" t="s">
         <v>22</v>
       </c>
-      <c r="H259" s="7" t="s">
+      <c r="H259" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>46</v>
       </c>
-      <c r="B260" s="6">
+      <c r="B260" s="5">
         <v>2.3479999999999999</v>
       </c>
       <c r="C260" t="s">
@@ -4450,31 +4407,29 @@
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A261" s="7" t="s">
+      <c r="A261" t="s">
         <v>82</v>
       </c>
-      <c r="B261" s="7">
+      <c r="B261">
         <v>2.9119999999999999</v>
       </c>
-      <c r="C261" s="7" t="s">
+      <c r="C261" t="s">
         <v>110</v>
       </c>
-      <c r="D261" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E261" s="7"/>
+      <c r="D261" t="s">
+        <v>7</v>
+      </c>
       <c r="F261" t="s">
         <v>12</v>
       </c>
       <c r="G261" t="s">
         <v>22</v>
       </c>
-      <c r="H261" s="7" t="s">
+      <c r="H261" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="263" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>0</v>
       </c>
@@ -4482,7 +4437,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>2</v>
       </c>
@@ -4490,7 +4445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>4</v>
       </c>
@@ -4498,7 +4453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>6</v>
       </c>
@@ -4506,7 +4461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>8</v>
       </c>
@@ -4514,7 +4469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>9</v>
       </c>
@@ -4522,7 +4477,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>11</v>
       </c>
@@ -4530,12 +4485,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="270" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>14</v>
       </c>
@@ -4561,109 +4516,106 @@
         <v>9</v>
       </c>
     </row>
-    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A272" s="7" t="s">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
         <v>94</v>
       </c>
-      <c r="B272" s="7">
+      <c r="B272">
         <v>1</v>
       </c>
-      <c r="C272" s="7" t="s">
+      <c r="C272" t="s">
         <v>110</v>
       </c>
-      <c r="D272" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E272" s="7"/>
-      <c r="F272" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G272" s="7" t="s">
+      <c r="D272" t="s">
+        <v>7</v>
+      </c>
+      <c r="F272" t="s">
+        <v>12</v>
+      </c>
+      <c r="G272" t="s">
         <v>18</v>
       </c>
-      <c r="H272" s="7" t="s">
+      <c r="H272" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="7" t="s">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
         <v>95</v>
       </c>
-      <c r="B273" s="5">
+      <c r="B273" s="4">
         <v>2.0019900497512438E-2</v>
       </c>
       <c r="C273" t="s">
         <v>20</v>
       </c>
-      <c r="D273" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F273" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G273" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H273" s="7" t="s">
+      <c r="D273" t="s">
+        <v>7</v>
+      </c>
+      <c r="F273" t="s">
+        <v>12</v>
+      </c>
+      <c r="G273" t="s">
+        <v>22</v>
+      </c>
+      <c r="H273" t="s">
         <v>96</v>
       </c>
-      <c r="K273" s="5"/>
-    </row>
-    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="7" t="s">
+      <c r="K273" s="4"/>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
         <v>39</v>
       </c>
-      <c r="B274" s="9">
+      <c r="B274" s="4">
         <v>2.9154228855721395E-3</v>
       </c>
-      <c r="C274" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D274" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E274" s="7"/>
-      <c r="F274" s="7" t="s">
+      <c r="C274" t="s">
+        <v>20</v>
+      </c>
+      <c r="D274" t="s">
+        <v>7</v>
+      </c>
+      <c r="F274" t="s">
         <v>40</v>
       </c>
-      <c r="G274" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H274" s="7" t="s">
+      <c r="G274" t="s">
+        <v>22</v>
+      </c>
+      <c r="H274" t="s">
         <v>41</v>
       </c>
-      <c r="K274" s="5"/>
-    </row>
-    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="7" t="s">
+      <c r="K274" s="4"/>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
         <v>27</v>
       </c>
-      <c r="B275" s="10">
+      <c r="B275" s="6">
         <v>0.21064676616915426</v>
       </c>
-      <c r="C275" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D275" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E275" s="7"/>
-      <c r="F275" s="7" t="s">
+      <c r="C275" t="s">
+        <v>20</v>
+      </c>
+      <c r="D275" t="s">
+        <v>7</v>
+      </c>
+      <c r="F275" t="s">
         <v>28</v>
       </c>
-      <c r="G275" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H275" s="7" t="s">
+      <c r="G275" t="s">
+        <v>22</v>
+      </c>
+      <c r="H275" t="s">
         <v>29</v>
       </c>
-      <c r="K275" s="5"/>
-    </row>
-    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A276" s="7" t="s">
+      <c r="K275" s="4"/>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
         <v>44</v>
       </c>
-      <c r="B276" s="5">
+      <c r="B276" s="4">
         <v>1.78407960199005E-4</v>
       </c>
       <c r="C276" t="s">
@@ -4681,84 +4633,81 @@
       <c r="H276" t="s">
         <v>45</v>
       </c>
-      <c r="K276" s="5"/>
-    </row>
-    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="7" t="s">
+      <c r="K276" s="4"/>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
         <v>92</v>
       </c>
-      <c r="B277" s="7">
+      <c r="B277">
         <v>0.97960199004975135</v>
       </c>
-      <c r="C277" s="7" t="s">
+      <c r="C277" t="s">
         <v>110</v>
       </c>
-      <c r="D277" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E277" s="7"/>
-      <c r="F277" s="7" t="s">
+      <c r="D277" t="s">
+        <v>7</v>
+      </c>
+      <c r="F277" t="s">
         <v>12</v>
       </c>
       <c r="G277" t="s">
         <v>22</v>
       </c>
-      <c r="H277" s="7" t="s">
+      <c r="H277" t="s">
         <v>93</v>
       </c>
-      <c r="K277" s="5"/>
-    </row>
-    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="7" t="s">
+      <c r="K277" s="4"/>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
         <v>34</v>
       </c>
-      <c r="B278" s="9">
+      <c r="B278" s="4">
         <v>8.8159203980099515E-5</v>
       </c>
-      <c r="C278" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D278" s="7" t="s">
+      <c r="C278" t="s">
+        <v>20</v>
+      </c>
+      <c r="D278" t="s">
         <v>35</v>
       </c>
-      <c r="E278" s="7"/>
-      <c r="F278" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G278" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H278" s="7" t="s">
+      <c r="F278" t="s">
+        <v>12</v>
+      </c>
+      <c r="G278" t="s">
+        <v>22</v>
+      </c>
+      <c r="H278" t="s">
         <v>36</v>
       </c>
-      <c r="K278" s="5"/>
-    </row>
-    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A279" s="7" t="s">
+      <c r="K278" s="4"/>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
         <v>97</v>
       </c>
-      <c r="B279" s="7">
+      <c r="B279">
         <f>0.1763/1.005</f>
         <v>0.17542288557213934</v>
       </c>
-      <c r="C279" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D279" s="7" t="s">
+      <c r="C279" t="s">
+        <v>20</v>
+      </c>
+      <c r="D279" t="s">
         <v>35</v>
       </c>
-      <c r="F279" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G279" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H279" s="7" t="s">
+      <c r="F279" t="s">
+        <v>12</v>
+      </c>
+      <c r="G279" t="s">
+        <v>22</v>
+      </c>
+      <c r="H279" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="281" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>0</v>
       </c>
@@ -4766,7 +4715,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>2</v>
       </c>
@@ -4774,7 +4723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>4</v>
       </c>
@@ -4782,7 +4731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>6</v>
       </c>
@@ -4790,7 +4739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>8</v>
       </c>
@@ -4798,7 +4747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>9</v>
       </c>
@@ -4806,7 +4755,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>11</v>
       </c>
@@ -4814,12 +4763,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" spans="1:11" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>14</v>
       </c>
@@ -4845,127 +4794,122 @@
         <v>9</v>
       </c>
     </row>
-    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A290" s="7" t="s">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
         <v>99</v>
       </c>
-      <c r="B290" s="7">
+      <c r="B290">
         <v>1</v>
       </c>
-      <c r="C290" s="7" t="s">
+      <c r="C290" t="s">
         <v>110</v>
       </c>
-      <c r="D290" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E290" s="7"/>
-      <c r="F290" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G290" s="7" t="s">
+      <c r="D290" t="s">
+        <v>7</v>
+      </c>
+      <c r="F290" t="s">
+        <v>12</v>
+      </c>
+      <c r="G290" t="s">
         <v>18</v>
       </c>
-      <c r="H290" s="7" t="s">
+      <c r="H290" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A291" s="7" t="s">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
         <v>94</v>
       </c>
-      <c r="B291" s="7">
+      <c r="B291">
         <v>0.92032967032967017</v>
       </c>
-      <c r="C291" s="7" t="s">
+      <c r="C291" t="s">
         <v>110</v>
       </c>
-      <c r="D291" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E291" s="7"/>
-      <c r="F291" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G291" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H291" s="7" t="s">
+      <c r="D291" t="s">
+        <v>7</v>
+      </c>
+      <c r="F291" t="s">
+        <v>12</v>
+      </c>
+      <c r="G291" t="s">
+        <v>22</v>
+      </c>
+      <c r="H291" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="7" t="s">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
         <v>39</v>
       </c>
-      <c r="B292" s="9">
+      <c r="B292" s="4">
         <v>4.888278388278388E-3</v>
       </c>
-      <c r="C292" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D292" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E292" s="7"/>
-      <c r="F292" s="7" t="s">
+      <c r="C292" t="s">
+        <v>20</v>
+      </c>
+      <c r="D292" t="s">
+        <v>7</v>
+      </c>
+      <c r="F292" t="s">
         <v>40</v>
       </c>
-      <c r="G292" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H292" s="7" t="s">
+      <c r="G292" t="s">
+        <v>22</v>
+      </c>
+      <c r="H292" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A293" s="7" t="s">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
         <v>27</v>
       </c>
-      <c r="B293" s="10">
+      <c r="B293" s="6">
         <v>4.3681318681318679E-2</v>
       </c>
-      <c r="C293" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D293" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E293" s="7"/>
-      <c r="F293" s="7" t="s">
+      <c r="C293" t="s">
+        <v>20</v>
+      </c>
+      <c r="D293" t="s">
+        <v>7</v>
+      </c>
+      <c r="F293" t="s">
         <v>28</v>
       </c>
-      <c r="G293" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H293" s="7" t="s">
+      <c r="G293" t="s">
+        <v>22</v>
+      </c>
+      <c r="H293" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A294" s="7" t="s">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
         <v>97</v>
       </c>
-      <c r="B294" s="7">
+      <c r="B294">
         <v>0.4495421245421245</v>
       </c>
-      <c r="C294" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D294" s="7" t="s">
+      <c r="C294" t="s">
+        <v>20</v>
+      </c>
+      <c r="D294" t="s">
         <v>35</v>
       </c>
-      <c r="F294" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G294" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H294" s="7" t="s">
+      <c r="F294" t="s">
+        <v>12</v>
+      </c>
+      <c r="G294" t="s">
+        <v>22</v>
+      </c>
+      <c r="H294" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="296" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>0</v>
       </c>
@@ -4973,7 +4917,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>2</v>
       </c>
@@ -4981,7 +4925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>4</v>
       </c>
@@ -4989,7 +4933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>6</v>
       </c>
@@ -4997,7 +4941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>8</v>
       </c>
@@ -5005,7 +4949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>9</v>
       </c>
@@ -5013,7 +4957,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>11</v>
       </c>
@@ -5021,12 +4965,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>14</v>
       </c>
@@ -5052,83 +4996,80 @@
         <v>9</v>
       </c>
     </row>
-    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A305" s="7" t="s">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
         <v>101</v>
       </c>
-      <c r="B305" s="7">
+      <c r="B305">
         <v>1</v>
       </c>
-      <c r="C305" s="7" t="s">
+      <c r="C305" t="s">
         <v>110</v>
       </c>
-      <c r="D305" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E305" s="7"/>
-      <c r="F305" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G305" s="7" t="s">
+      <c r="D305" t="s">
+        <v>7</v>
+      </c>
+      <c r="F305" t="s">
+        <v>12</v>
+      </c>
+      <c r="G305" t="s">
         <v>18</v>
       </c>
-      <c r="H305" s="7" t="s">
+      <c r="H305" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A306" s="7" t="s">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
         <v>99</v>
       </c>
-      <c r="B306" s="7">
+      <c r="B306">
         <v>1.0758620689655174</v>
       </c>
-      <c r="C306" s="7" t="s">
+      <c r="C306" t="s">
         <v>110</v>
       </c>
-      <c r="D306" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E306" s="7"/>
-      <c r="F306" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G306" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H306" s="7" t="s">
+      <c r="D306" t="s">
+        <v>7</v>
+      </c>
+      <c r="F306" t="s">
+        <v>12</v>
+      </c>
+      <c r="G306" t="s">
+        <v>22</v>
+      </c>
+      <c r="H306" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A307" s="7" t="s">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
         <v>27</v>
       </c>
-      <c r="B307" s="10">
+      <c r="B307" s="6">
         <v>0.14778325123152711</v>
       </c>
-      <c r="C307" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D307" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E307" s="7"/>
-      <c r="F307" s="7" t="s">
+      <c r="C307" t="s">
+        <v>20</v>
+      </c>
+      <c r="D307" t="s">
+        <v>7</v>
+      </c>
+      <c r="F307" t="s">
         <v>28</v>
       </c>
-      <c r="G307" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H307" s="7" t="s">
+      <c r="G307" t="s">
+        <v>22</v>
+      </c>
+      <c r="H307" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>48</v>
       </c>
-      <c r="B308" s="6">
+      <c r="B308" s="5">
         <v>8.8669950738916259E-2</v>
       </c>
       <c r="C308" t="s">
@@ -5147,8 +5088,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="310" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>0</v>
       </c>
@@ -5156,7 +5096,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>2</v>
       </c>
@@ -5164,7 +5104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>4</v>
       </c>
@@ -5172,7 +5112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>6</v>
       </c>
@@ -5180,7 +5120,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>8</v>
       </c>
@@ -5188,7 +5128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>9</v>
       </c>
@@ -5196,7 +5136,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>11</v>
       </c>
@@ -5204,12 +5144,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="317" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>14</v>
       </c>
@@ -5235,151 +5175,145 @@
         <v>9</v>
       </c>
     </row>
-    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A319" s="7" t="s">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
         <v>103</v>
       </c>
-      <c r="B319" s="7">
+      <c r="B319">
         <v>1</v>
       </c>
-      <c r="C319" s="7" t="s">
+      <c r="C319" t="s">
         <v>110</v>
       </c>
-      <c r="D319" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E319" s="7"/>
-      <c r="F319" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G319" s="7" t="s">
+      <c r="D319" t="s">
+        <v>7</v>
+      </c>
+      <c r="F319" t="s">
+        <v>12</v>
+      </c>
+      <c r="G319" t="s">
         <v>18</v>
       </c>
-      <c r="H319" s="7" t="s">
+      <c r="H319" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A320" s="7" t="s">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
         <v>101</v>
       </c>
-      <c r="B320" s="7">
+      <c r="B320">
         <v>0.98927875243664709</v>
       </c>
-      <c r="C320" s="7" t="s">
+      <c r="C320" t="s">
         <v>110</v>
       </c>
-      <c r="D320" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E320" s="7"/>
-      <c r="F320" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G320" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H320" s="7" t="s">
+      <c r="D320" t="s">
+        <v>7</v>
+      </c>
+      <c r="F320" t="s">
+        <v>12</v>
+      </c>
+      <c r="G320" t="s">
+        <v>22</v>
+      </c>
+      <c r="H320" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A321" s="7" t="s">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
         <v>39</v>
       </c>
-      <c r="B321" s="9">
+      <c r="B321" s="4">
         <v>1.9493177387914229E-3</v>
       </c>
-      <c r="C321" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D321" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E321" s="7"/>
-      <c r="F321" s="7" t="s">
+      <c r="C321" t="s">
+        <v>20</v>
+      </c>
+      <c r="D321" t="s">
+        <v>7</v>
+      </c>
+      <c r="F321" t="s">
         <v>40</v>
       </c>
-      <c r="G321" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H321" s="7" t="s">
+      <c r="G321" t="s">
+        <v>22</v>
+      </c>
+      <c r="H321" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A322" s="7" t="s">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
         <v>27</v>
       </c>
-      <c r="B322" s="10">
+      <c r="B322" s="6">
         <v>2.1695906432748536E-2</v>
       </c>
-      <c r="C322" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D322" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E322" s="7"/>
-      <c r="F322" s="7" t="s">
+      <c r="C322" t="s">
+        <v>20</v>
+      </c>
+      <c r="D322" t="s">
+        <v>7</v>
+      </c>
+      <c r="F322" t="s">
         <v>28</v>
       </c>
-      <c r="G322" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H322" s="7" t="s">
+      <c r="G322" t="s">
+        <v>22</v>
+      </c>
+      <c r="H322" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A323" s="7" t="s">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
         <v>104</v>
       </c>
-      <c r="B323" s="5">
+      <c r="B323" s="4">
         <v>9.8927875243664705E-3</v>
       </c>
-      <c r="C323" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D323" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F323" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G323" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H323" s="7" t="s">
+      <c r="C323" t="s">
+        <v>20</v>
+      </c>
+      <c r="D323" t="s">
+        <v>7</v>
+      </c>
+      <c r="F323" t="s">
+        <v>12</v>
+      </c>
+      <c r="G323" t="s">
+        <v>22</v>
+      </c>
+      <c r="H323" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A324" s="7" t="s">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
         <v>34</v>
       </c>
-      <c r="B324" s="9">
+      <c r="B324" s="4">
         <v>2.4415204678362572E-4</v>
       </c>
-      <c r="C324" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D324" s="7" t="s">
+      <c r="C324" t="s">
+        <v>20</v>
+      </c>
+      <c r="D324" t="s">
         <v>35</v>
       </c>
-      <c r="E324" s="7"/>
-      <c r="F324" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G324" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H324" s="7" t="s">
+      <c r="F324" t="s">
+        <v>12</v>
+      </c>
+      <c r="G324" t="s">
+        <v>22</v>
+      </c>
+      <c r="H324" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="326" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>0</v>
       </c>
@@ -5387,7 +5321,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>2</v>
       </c>
@@ -5395,7 +5329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>4</v>
       </c>
@@ -5403,7 +5337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>6</v>
       </c>
@@ -5411,7 +5345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>8</v>
       </c>
@@ -5419,7 +5353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>9</v>
       </c>
@@ -5427,7 +5361,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>11</v>
       </c>
@@ -5435,12 +5369,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="333" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>14</v>
       </c>
@@ -5466,107 +5400,103 @@
         <v>9</v>
       </c>
     </row>
-    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A335" s="7" t="s">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
         <v>106</v>
       </c>
-      <c r="B335" s="7">
+      <c r="B335">
         <v>1</v>
       </c>
-      <c r="C335" s="7" t="s">
+      <c r="C335" t="s">
         <v>110</v>
       </c>
-      <c r="D335" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E335" s="7"/>
-      <c r="F335" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G335" s="7" t="s">
+      <c r="D335" t="s">
+        <v>7</v>
+      </c>
+      <c r="F335" t="s">
+        <v>12</v>
+      </c>
+      <c r="G335" t="s">
         <v>18</v>
       </c>
-      <c r="H335" s="7" t="s">
+      <c r="H335" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A336" s="7" t="s">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
         <v>103</v>
       </c>
-      <c r="B336" s="7">
+      <c r="B336">
         <v>1.026</v>
       </c>
-      <c r="C336" s="7" t="s">
+      <c r="C336" t="s">
         <v>110</v>
       </c>
-      <c r="D336" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E336" s="7"/>
-      <c r="F336" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G336" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H336" s="7" t="s">
+      <c r="D336" t="s">
+        <v>7</v>
+      </c>
+      <c r="F336" t="s">
+        <v>12</v>
+      </c>
+      <c r="G336" t="s">
+        <v>22</v>
+      </c>
+      <c r="H336" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A337" s="7" t="s">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
         <v>39</v>
       </c>
-      <c r="B337" s="9">
+      <c r="B337" s="4">
         <v>7.7999999999999999E-4</v>
       </c>
-      <c r="C337" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D337" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E337" s="7"/>
-      <c r="F337" s="7" t="s">
+      <c r="C337" t="s">
+        <v>20</v>
+      </c>
+      <c r="D337" t="s">
+        <v>7</v>
+      </c>
+      <c r="F337" t="s">
         <v>40</v>
       </c>
-      <c r="G337" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H337" s="7" t="s">
+      <c r="G337" t="s">
+        <v>22</v>
+      </c>
+      <c r="H337" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A338" s="7" t="s">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
         <v>27</v>
       </c>
-      <c r="B338" s="10">
+      <c r="B338" s="6">
         <v>0.45340000000000003</v>
       </c>
-      <c r="C338" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D338" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E338" s="7"/>
-      <c r="F338" s="7" t="s">
+      <c r="C338" t="s">
+        <v>20</v>
+      </c>
+      <c r="D338" t="s">
+        <v>7</v>
+      </c>
+      <c r="F338" t="s">
         <v>28</v>
       </c>
-      <c r="G338" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H338" s="7" t="s">
+      <c r="G338" t="s">
+        <v>22</v>
+      </c>
+      <c r="H338" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>48</v>
       </c>
-      <c r="B339" s="6">
+      <c r="B339" s="5">
         <v>3.0620000000000001E-2</v>
       </c>
       <c r="C339" t="s">
@@ -5585,8 +5515,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="341" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>0</v>
       </c>
@@ -5594,7 +5523,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>2</v>
       </c>
@@ -5602,7 +5531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>4</v>
       </c>
@@ -5610,7 +5539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>6</v>
       </c>
@@ -5618,7 +5547,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>8</v>
       </c>
@@ -5626,7 +5555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>9</v>
       </c>
@@ -5634,7 +5563,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>11</v>
       </c>
@@ -5642,12 +5571,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>14</v>
       </c>
@@ -5673,112 +5602,100 @@
         <v>9</v>
       </c>
     </row>
-    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A350" s="7" t="s">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
         <v>108</v>
       </c>
-      <c r="B350" s="7">
+      <c r="B350">
         <v>1</v>
       </c>
-      <c r="C350" s="7" t="s">
+      <c r="C350" t="s">
         <v>110</v>
       </c>
-      <c r="D350" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E350" s="7"/>
-      <c r="F350" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G350" s="7" t="s">
+      <c r="D350" t="s">
+        <v>7</v>
+      </c>
+      <c r="F350" t="s">
+        <v>12</v>
+      </c>
+      <c r="G350" t="s">
         <v>18</v>
       </c>
-      <c r="H350" s="7" t="s">
+      <c r="H350" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A351" s="7" t="s">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
         <v>106</v>
       </c>
-      <c r="B351" s="7">
+      <c r="B351">
         <v>1</v>
       </c>
-      <c r="C351" s="7" t="s">
+      <c r="C351" t="s">
         <v>110</v>
       </c>
-      <c r="D351" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E351" s="7"/>
-      <c r="F351" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G351" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H351" s="7" t="s">
+      <c r="D351" t="s">
+        <v>7</v>
+      </c>
+      <c r="F351" t="s">
+        <v>12</v>
+      </c>
+      <c r="G351" t="s">
+        <v>22</v>
+      </c>
+      <c r="H351" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A352" s="7" t="s">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
         <v>39</v>
       </c>
-      <c r="B352" s="9">
+      <c r="B352" s="4">
         <v>5.8500000000000003E-2</v>
       </c>
-      <c r="C352" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D352" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E352" s="7"/>
-      <c r="F352" s="7" t="s">
+      <c r="C352" t="s">
+        <v>20</v>
+      </c>
+      <c r="D352" t="s">
+        <v>7</v>
+      </c>
+      <c r="F352" t="s">
         <v>40</v>
       </c>
-      <c r="G352" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H352" s="7" t="s">
+      <c r="G352" t="s">
+        <v>22</v>
+      </c>
+      <c r="H352" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A353" s="7" t="s">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
         <v>27</v>
       </c>
-      <c r="B353" s="10">
+      <c r="B353" s="6">
         <v>0.52</v>
       </c>
-      <c r="C353" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D353" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E353" s="7"/>
-      <c r="F353" s="7" t="s">
+      <c r="C353" t="s">
+        <v>20</v>
+      </c>
+      <c r="D353" t="s">
+        <v>7</v>
+      </c>
+      <c r="F353" t="s">
         <v>28</v>
       </c>
-      <c r="G353" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H353" s="7" t="s">
+      <c r="G353" t="s">
+        <v>22</v>
+      </c>
+      <c r="H353" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L353" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Exhaust gas treatment 1"/>
-        <filter val="Exhaust gas treatment 2"/>
-        <filter val="treatment of wastewater, average, capacity 1E9l/year"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L353" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/premise/data/additional_inventories/lci-carbon-fiber.xlsx
+++ b/premise/data/additional_inventories/lci-carbon-fiber.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6F13D3-FB6C-314D-BCF2-F5F35C72DE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AB65DE-537A-CE46-A702-944BD1C649EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38820" yWindow="900" windowWidth="25520" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38820" yWindow="760" windowWidth="25520" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Carbon fiber" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="105">
   <si>
     <t>Activity</t>
   </si>
@@ -172,9 +172,6 @@
     <t>ethylene glycol</t>
   </si>
   <si>
-    <t>air separation, cryogenic</t>
-  </si>
-  <si>
     <t>nitrogen, liquid</t>
   </si>
   <si>
@@ -353,6 +350,9 @@
   </si>
   <si>
     <t>carbon fiber, weaved</t>
+  </si>
+  <si>
+    <t>market for nitrogen, liquid</t>
   </si>
 </sst>
 </file>
@@ -732,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="G215" sqref="G215"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -746,7 +746,7 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -794,7 +794,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -842,7 +842,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
@@ -854,7 +854,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1090,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D29" t="s">
         <v>6</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="B34" s="5">
         <v>5.3965303593556382E-3</v>
@@ -1222,13 +1222,13 @@
         <v>20</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K34" s="4"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35" s="5">
         <v>1.5947955390334572</v>
@@ -1246,7 +1246,7 @@
         <v>20</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K35" s="4"/>
     </row>
@@ -1255,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
@@ -1308,10 +1308,10 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
@@ -1333,7 +1333,7 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
@@ -1381,7 +1381,7 @@
         <v>9</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>15</v>
@@ -1393,40 +1393,40 @@
         <v>1</v>
       </c>
       <c r="I46" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="J46" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="K46" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="K46" s="11" t="s">
+      <c r="L46" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="L46" s="11" t="s">
+      <c r="M46" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="M46" s="11" t="s">
+      <c r="N46" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="N46" s="11" t="s">
+      <c r="O46" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="O46" s="11" t="s">
+      <c r="P46" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="P46" s="11" t="s">
+      <c r="Q46" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Q46" s="1" t="s">
+      <c r="R46" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R46" s="1" t="s">
+      <c r="S46" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="S46" s="10" t="s">
+      <c r="T46" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="T46" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="16" x14ac:dyDescent="0.2">
@@ -1448,7 +1448,7 @@
         <v>16</v>
       </c>
       <c r="G47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
@@ -1460,12 +1460,12 @@
       <c r="O47" s="8"/>
       <c r="P47" s="8"/>
       <c r="T47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B48">
         <f>0.623418865196964/1000</f>
@@ -1475,10 +1475,10 @@
         <v>38</v>
       </c>
       <c r="E48" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F48" t="s">
         <v>54</v>
-      </c>
-      <c r="F48" t="s">
-        <v>55</v>
       </c>
       <c r="H48" s="12"/>
       <c r="I48" s="12">
@@ -1689,13 +1689,13 @@
     </row>
     <row r="52" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B52">
         <v>-1.1384170581857599E-3</v>
       </c>
       <c r="C52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D52" t="s">
         <v>38</v>
@@ -1705,7 +1705,7 @@
         <v>20</v>
       </c>
       <c r="G52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I52" s="12">
         <v>2</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="55" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B55" s="4">
         <v>4.0585471629924104E-2</v>
@@ -1887,7 +1887,7 @@
         <v>20</v>
       </c>
       <c r="G55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I55" s="12">
         <v>2</v>
@@ -2560,7 +2560,7 @@
     </row>
     <row r="68" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="B68" s="5">
         <v>1.6096855800505964E-2</v>
@@ -2576,7 +2576,7 @@
         <v>20</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I68" s="12">
         <v>2</v>
@@ -2613,7 +2613,7 @@
     </row>
     <row r="69" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B69" s="5">
         <v>1.0234911456451028</v>
@@ -2629,7 +2629,7 @@
         <v>20</v>
       </c>
       <c r="G69" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I69" s="12">
         <v>2</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
@@ -2783,10 +2783,10 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>73</v>
+      </c>
+      <c r="B76" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.2">
@@ -2808,7 +2808,7 @@
         <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
@@ -2856,7 +2856,7 @@
         <v>9</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>15</v>
@@ -2868,40 +2868,40 @@
         <v>1</v>
       </c>
       <c r="I81" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="J81" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J81" s="1" t="s">
+      <c r="K81" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="K81" s="11" t="s">
+      <c r="L81" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="L81" s="11" t="s">
+      <c r="M81" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="M81" s="11" t="s">
+      <c r="N81" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="N81" s="11" t="s">
+      <c r="O81" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="O81" s="11" t="s">
+      <c r="P81" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="P81" s="11" t="s">
+      <c r="Q81" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Q81" s="1" t="s">
+      <c r="R81" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R81" s="1" t="s">
+      <c r="S81" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="S81" s="10" t="s">
+      <c r="T81" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="T81" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:20" ht="16" x14ac:dyDescent="0.2">
@@ -2935,7 +2935,7 @@
       <c r="O82" s="8"/>
       <c r="P82" s="8"/>
       <c r="T82" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="1:20" ht="16" x14ac:dyDescent="0.2">
@@ -2957,7 +2957,7 @@
         <v>20</v>
       </c>
       <c r="G83" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H83" s="12"/>
       <c r="I83" s="12">
@@ -3113,7 +3113,7 @@
     </row>
     <row r="86" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B86">
         <v>5.0017979144192735E-3</v>
@@ -3129,7 +3129,7 @@
         <v>20</v>
       </c>
       <c r="G86" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H86" s="12"/>
       <c r="I86" s="12">
@@ -3328,9 +3328,8 @@
       </c>
     </row>
     <row r="90" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A90" t="str">
-        <f>A68</f>
-        <v>air separation, cryogenic</v>
+      <c r="A90" t="s">
+        <v>104</v>
       </c>
       <c r="B90">
         <v>0.99604575913358739</v>
@@ -3346,7 +3345,7 @@
         <v>20</v>
       </c>
       <c r="G90" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H90" s="12"/>
       <c r="I90" s="12">
@@ -3449,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K93" s="8"/>
       <c r="L93" s="8"/>
@@ -3502,10 +3501,10 @@
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>73</v>
+      </c>
+      <c r="B97" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.2">
@@ -3527,7 +3526,7 @@
         <v>8</v>
       </c>
       <c r="B99" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K99" s="8"/>
       <c r="L99" s="8"/>
@@ -3575,7 +3574,7 @@
         <v>9</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>15</v>
@@ -3587,40 +3586,40 @@
         <v>1</v>
       </c>
       <c r="I102" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="J102" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J102" s="1" t="s">
+      <c r="K102" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="K102" s="11" t="s">
+      <c r="L102" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="L102" s="11" t="s">
+      <c r="M102" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="M102" s="11" t="s">
+      <c r="N102" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="N102" s="11" t="s">
+      <c r="O102" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="O102" s="11" t="s">
+      <c r="P102" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="P102" s="11" t="s">
+      <c r="Q102" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Q102" s="1" t="s">
+      <c r="R102" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R102" s="1" t="s">
+      <c r="S102" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="S102" s="10" t="s">
+      <c r="T102" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="T102" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="103" spans="1:20" ht="16" x14ac:dyDescent="0.2">
@@ -3654,7 +3653,7 @@
       <c r="O103" s="8"/>
       <c r="P103" s="8"/>
       <c r="T103" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="104" spans="1:20" ht="16" x14ac:dyDescent="0.2">
@@ -4006,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K111" s="8"/>
       <c r="L111" s="8"/>
@@ -4059,10 +4058,10 @@
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>73</v>
+      </c>
+      <c r="B115" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="B115" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.2">
@@ -4084,7 +4083,7 @@
         <v>8</v>
       </c>
       <c r="B117" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K117" s="8"/>
       <c r="L117" s="8"/>
@@ -4132,7 +4131,7 @@
         <v>9</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>15</v>
@@ -4144,45 +4143,45 @@
         <v>1</v>
       </c>
       <c r="I120" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="J120" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J120" s="1" t="s">
+      <c r="K120" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="K120" s="11" t="s">
+      <c r="L120" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="L120" s="11" t="s">
+      <c r="M120" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="M120" s="11" t="s">
+      <c r="N120" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="N120" s="11" t="s">
+      <c r="O120" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="O120" s="11" t="s">
+      <c r="P120" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="P120" s="11" t="s">
+      <c r="Q120" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Q120" s="1" t="s">
+      <c r="R120" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R120" s="1" t="s">
+      <c r="S120" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="S120" s="10" t="s">
+      <c r="T120" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="T120" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="121" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -4197,7 +4196,7 @@
         <v>16</v>
       </c>
       <c r="G121" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H121" s="12"/>
       <c r="I121" s="12"/>
@@ -4209,7 +4208,7 @@
       <c r="O121" s="8"/>
       <c r="P121" s="8"/>
       <c r="T121" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="122" spans="1:20" ht="16" x14ac:dyDescent="0.2">
@@ -4277,7 +4276,7 @@
     </row>
     <row r="123" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B123">
         <v>1.2598425196850395E-2</v>
@@ -4286,10 +4285,10 @@
         <v>10</v>
       </c>
       <c r="E123" t="s">
+        <v>53</v>
+      </c>
+      <c r="F123" t="s">
         <v>54</v>
-      </c>
-      <c r="F123" t="s">
-        <v>55</v>
       </c>
       <c r="H123" s="12"/>
       <c r="I123" s="12">
@@ -4327,7 +4326,7 @@
     </row>
     <row r="124" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B124">
         <v>1.629106706489275E-3</v>
@@ -4336,10 +4335,10 @@
         <v>10</v>
       </c>
       <c r="E124" t="s">
+        <v>53</v>
+      </c>
+      <c r="F124" t="s">
         <v>54</v>
-      </c>
-      <c r="F124" t="s">
-        <v>55</v>
       </c>
       <c r="H124" s="12"/>
       <c r="I124" s="12">
@@ -4377,7 +4376,7 @@
     </row>
     <row r="125" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B125">
         <v>7.4287265815910948E-3</v>
@@ -4386,10 +4385,10 @@
         <v>10</v>
       </c>
       <c r="E125" t="s">
+        <v>53</v>
+      </c>
+      <c r="F125" t="s">
         <v>54</v>
-      </c>
-      <c r="F125" t="s">
-        <v>55</v>
       </c>
       <c r="H125" s="12"/>
       <c r="I125" s="12">
@@ -4427,7 +4426,7 @@
     </row>
     <row r="126" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B126">
         <f>0.207439587292968/1000</f>
@@ -4437,10 +4436,10 @@
         <v>38</v>
       </c>
       <c r="E126" t="s">
+        <v>53</v>
+      </c>
+      <c r="F126" t="s">
         <v>54</v>
-      </c>
-      <c r="F126" t="s">
-        <v>55</v>
       </c>
       <c r="H126" s="12"/>
       <c r="I126" s="12">
@@ -4489,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K128" s="8"/>
       <c r="L128" s="8"/>
@@ -4528,10 +4527,10 @@
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>73</v>
+      </c>
+      <c r="B131" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="B131" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.2">
@@ -4567,7 +4566,7 @@
         <v>8</v>
       </c>
       <c r="B134" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K134" s="8"/>
       <c r="L134" s="8"/>
@@ -4615,7 +4614,7 @@
         <v>9</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>15</v>
@@ -4627,45 +4626,45 @@
         <v>1</v>
       </c>
       <c r="I137" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="J137" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J137" s="1" t="s">
+      <c r="K137" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="K137" s="11" t="s">
+      <c r="L137" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="L137" s="11" t="s">
+      <c r="M137" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="M137" s="11" t="s">
+      <c r="N137" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="N137" s="11" t="s">
+      <c r="O137" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="O137" s="11" t="s">
+      <c r="P137" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="P137" s="11" t="s">
+      <c r="Q137" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Q137" s="1" t="s">
+      <c r="R137" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R137" s="1" t="s">
+      <c r="S137" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="S137" s="10" t="s">
+      <c r="T137" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="T137" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="138" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -4680,7 +4679,7 @@
         <v>16</v>
       </c>
       <c r="G138" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H138" s="12"/>
       <c r="I138" s="12"/>
@@ -4692,7 +4691,7 @@
       <c r="O138" s="8"/>
       <c r="P138" s="8"/>
       <c r="T138" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="139" spans="1:20" ht="16" x14ac:dyDescent="0.2">
@@ -4760,7 +4759,7 @@
     </row>
     <row r="140" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B140">
         <v>0.19081632653061226</v>
@@ -4775,7 +4774,7 @@
         <v>20</v>
       </c>
       <c r="G140" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H140" s="12"/>
       <c r="I140" s="12">
@@ -4813,7 +4812,7 @@
     </row>
     <row r="141" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B141">
         <v>0.70204081632653059</v>
@@ -4822,10 +4821,10 @@
         <v>10</v>
       </c>
       <c r="E141" t="s">
+        <v>53</v>
+      </c>
+      <c r="F141" t="s">
         <v>54</v>
-      </c>
-      <c r="F141" t="s">
-        <v>55</v>
       </c>
       <c r="H141" s="12"/>
       <c r="I141" s="12">
@@ -4863,7 +4862,7 @@
     </row>
     <row r="142" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B142">
         <v>3.4406307977736557</v>
@@ -4872,10 +4871,10 @@
         <v>10</v>
       </c>
       <c r="E142" t="s">
+        <v>53</v>
+      </c>
+      <c r="F142" t="s">
         <v>54</v>
-      </c>
-      <c r="F142" t="s">
-        <v>55</v>
       </c>
       <c r="H142" s="12"/>
       <c r="I142" s="12">
@@ -4913,7 +4912,7 @@
     </row>
     <row r="143" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B143">
         <v>9.9907235621521338E-3</v>
@@ -4922,10 +4921,10 @@
         <v>10</v>
       </c>
       <c r="E143" t="s">
+        <v>53</v>
+      </c>
+      <c r="F143" t="s">
         <v>54</v>
-      </c>
-      <c r="F143" t="s">
-        <v>55</v>
       </c>
       <c r="H143" s="12"/>
       <c r="I143" s="12">
@@ -4963,7 +4962,7 @@
     </row>
     <row r="144" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B144">
         <f>0.474025974025974/1000</f>
@@ -4973,10 +4972,10 @@
         <v>38</v>
       </c>
       <c r="E144" t="s">
+        <v>53</v>
+      </c>
+      <c r="F144" t="s">
         <v>54</v>
-      </c>
-      <c r="F144" t="s">
-        <v>55</v>
       </c>
       <c r="H144" s="12"/>
       <c r="I144" s="12">
@@ -5014,7 +5013,7 @@
     </row>
     <row r="145" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B145">
         <v>0.98979591836734704</v>
@@ -5029,7 +5028,7 @@
         <v>20</v>
       </c>
       <c r="G145" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H145" s="12"/>
       <c r="I145" s="12">
@@ -5131,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K148" s="8"/>
       <c r="L148" s="8"/>
@@ -5184,10 +5183,10 @@
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
+        <v>73</v>
+      </c>
+      <c r="B152" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="B152" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.2">
@@ -5209,7 +5208,7 @@
         <v>8</v>
       </c>
       <c r="B154" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K154" s="8"/>
       <c r="L154" s="8"/>
@@ -5257,7 +5256,7 @@
         <v>9</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>15</v>
@@ -5269,40 +5268,40 @@
         <v>1</v>
       </c>
       <c r="I157" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="J157" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J157" s="1" t="s">
+      <c r="K157" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="K157" s="11" t="s">
+      <c r="L157" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="L157" s="11" t="s">
+      <c r="M157" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="M157" s="11" t="s">
+      <c r="N157" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="N157" s="11" t="s">
+      <c r="O157" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="O157" s="11" t="s">
+      <c r="P157" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="P157" s="11" t="s">
+      <c r="Q157" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Q157" s="1" t="s">
+      <c r="R157" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R157" s="1" t="s">
+      <c r="S157" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="S157" s="10" t="s">
+      <c r="T157" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="T157" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="158" spans="1:20" ht="16" x14ac:dyDescent="0.2">
@@ -5336,7 +5335,7 @@
       <c r="O158" s="8"/>
       <c r="P158" s="8"/>
       <c r="T158" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="159" spans="1:20" ht="16" x14ac:dyDescent="0.2">
@@ -5459,7 +5458,7 @@
     </row>
     <row r="161" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B161">
         <v>0.4495421245421245</v>
@@ -5475,7 +5474,7 @@
         <v>20</v>
       </c>
       <c r="G161" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H161" s="12"/>
       <c r="I161" s="12">
@@ -5513,7 +5512,7 @@
     </row>
     <row r="162" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B162" s="4">
         <v>1.8424908424908421E-2</v>
@@ -5529,7 +5528,7 @@
         <v>20</v>
       </c>
       <c r="G162" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H162" s="12"/>
       <c r="I162" s="12">
@@ -5783,7 +5782,7 @@
     </row>
     <row r="167" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B167">
         <v>0.16144688644688646</v>
@@ -5799,7 +5798,7 @@
         <v>20</v>
       </c>
       <c r="G167" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H167" s="12"/>
       <c r="I167" s="12">
@@ -5945,7 +5944,7 @@
     </row>
     <row r="170" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="B170" s="5">
         <v>2.116855311355311</v>
@@ -5961,7 +5960,7 @@
         <v>20</v>
       </c>
       <c r="G170" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H170" s="12"/>
       <c r="I170" s="12">
@@ -5999,7 +5998,7 @@
     </row>
     <row r="171" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B171">
         <v>2.6253333333333329</v>
@@ -6015,7 +6014,7 @@
         <v>20</v>
       </c>
       <c r="G171" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H171" s="12"/>
       <c r="I171" s="12">
@@ -6161,7 +6160,7 @@
     </row>
     <row r="174" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="B174" s="5">
         <v>5.9619949633699632</v>
@@ -6177,7 +6176,7 @@
         <v>20</v>
       </c>
       <c r="G174" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H174" s="12"/>
       <c r="I174" s="12">
@@ -6269,7 +6268,7 @@
     </row>
     <row r="176" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B176">
         <v>7.0907440476190473</v>
@@ -6285,7 +6284,7 @@
         <v>20</v>
       </c>
       <c r="G176" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H176" s="12"/>
       <c r="I176" s="12">
@@ -6431,7 +6430,7 @@
     </row>
     <row r="179" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B179">
         <v>0.19834249084249084</v>
@@ -6447,7 +6446,7 @@
         <v>20</v>
       </c>
       <c r="G179" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H179" s="12"/>
       <c r="I179" s="12">
@@ -6485,7 +6484,7 @@
     </row>
     <row r="180" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B180">
         <v>2.5063278388278381</v>
@@ -6540,7 +6539,7 @@
     </row>
     <row r="181" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B181">
         <v>33.195320512820516</v>
@@ -6556,7 +6555,7 @@
         <v>20</v>
       </c>
       <c r="G181" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H181" s="12"/>
       <c r="I181" s="12">
@@ -6605,7 +6604,7 @@
         <v>0</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K183" s="8"/>
       <c r="L183" s="8"/>
@@ -6658,10 +6657,10 @@
     </row>
     <row r="187" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
+        <v>73</v>
+      </c>
+      <c r="B187" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="B187" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.2">
@@ -6683,7 +6682,7 @@
         <v>8</v>
       </c>
       <c r="B189" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K189" s="8"/>
       <c r="L189" s="8"/>
@@ -6731,7 +6730,7 @@
         <v>9</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>15</v>
@@ -6743,40 +6742,40 @@
         <v>1</v>
       </c>
       <c r="I192" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="J192" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J192" s="1" t="s">
+      <c r="K192" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="K192" s="11" t="s">
+      <c r="L192" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="L192" s="11" t="s">
+      <c r="M192" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="M192" s="11" t="s">
+      <c r="N192" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="N192" s="11" t="s">
+      <c r="O192" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="O192" s="11" t="s">
+      <c r="P192" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="P192" s="11" t="s">
+      <c r="Q192" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Q192" s="1" t="s">
+      <c r="R192" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R192" s="1" t="s">
+      <c r="S192" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="S192" s="10" t="s">
+      <c r="T192" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="T192" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="193" spans="1:20" ht="16" x14ac:dyDescent="0.2">
@@ -6810,7 +6809,7 @@
       <c r="O193" s="8"/>
       <c r="P193" s="8"/>
       <c r="T193" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="194" spans="1:20" ht="16" x14ac:dyDescent="0.2">
@@ -7096,7 +7095,7 @@
     </row>
     <row r="199" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B199" s="4">
         <v>1.0149999999999999E-2</v>
@@ -7112,7 +7111,7 @@
         <v>20</v>
       </c>
       <c r="G199" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H199" s="12"/>
       <c r="I199" s="12">
@@ -7379,7 +7378,7 @@
         <v>0</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K205" s="8"/>
       <c r="L205" s="8"/>
@@ -7432,10 +7431,10 @@
     </row>
     <row r="209" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
+        <v>73</v>
+      </c>
+      <c r="B209" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="B209" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="210" spans="1:20" x14ac:dyDescent="0.2">
@@ -7457,7 +7456,7 @@
         <v>8</v>
       </c>
       <c r="B211" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K211" s="8"/>
       <c r="L211" s="8"/>
@@ -7505,7 +7504,7 @@
         <v>9</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>15</v>
@@ -7517,45 +7516,45 @@
         <v>1</v>
       </c>
       <c r="I214" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="J214" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J214" s="1" t="s">
+      <c r="K214" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="K214" s="11" t="s">
+      <c r="L214" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="L214" s="11" t="s">
+      <c r="M214" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="M214" s="11" t="s">
+      <c r="N214" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="N214" s="11" t="s">
+      <c r="O214" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="O214" s="11" t="s">
+      <c r="P214" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="P214" s="11" t="s">
+      <c r="Q214" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Q214" s="1" t="s">
+      <c r="R214" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R214" s="1" t="s">
+      <c r="S214" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="S214" s="10" t="s">
+      <c r="T214" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="T214" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="215" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -7571,7 +7570,7 @@
         <v>16</v>
       </c>
       <c r="G215" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H215" s="12"/>
       <c r="I215" s="12"/>
@@ -7582,7 +7581,7 @@
       <c r="O215" s="8"/>
       <c r="P215" s="8"/>
       <c r="T215" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="216" spans="1:20" ht="16" x14ac:dyDescent="0.2">
